--- a/data/poker.xlsx
+++ b/data/poker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\r\r_project\20171227_poker\20180211_pk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\r\r_project\20171227_poker\20180211_pk\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,8 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="20170208-10w-3.3hours" sheetId="6" r:id="rId2"/>
-    <sheet name="成牌逻辑" sheetId="10" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="8" r:id="rId4"/>
+    <sheet name="20180219-p2-5w-38min" sheetId="11" r:id="rId3"/>
+    <sheet name="成牌逻辑" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="159">
   <si>
     <r>
       <t>A</t>
@@ -1039,6 +1040,14 @@
     <t>colSums</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>20170208-10w-3.3hours</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180219-p2-10w-77.7min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1047,7 +1056,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1186,6 +1195,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1255,7 +1271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1318,13 +1334,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFB5D2E2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1383,12 +1408,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1422,17 +1441,8 @@
     <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1488,11 +1498,74 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3312,734 +3385,2082 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:N14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="6.25" customWidth="1"/>
+    <col min="15" max="15" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="30" width="6.375" customWidth="1"/>
+    <col min="31" max="31" width="3.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23"/>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21"/>
+      <c r="B1" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="21">
+      <c r="G1" s="57">
         <v>9</v>
       </c>
-      <c r="H1" s="21">
+      <c r="H1" s="57">
         <v>8</v>
       </c>
-      <c r="I1" s="21">
+      <c r="I1" s="57">
         <v>7</v>
       </c>
-      <c r="J1" s="21">
+      <c r="J1" s="57">
         <v>6</v>
       </c>
-      <c r="K1" s="21">
+      <c r="K1" s="57">
         <v>5</v>
       </c>
-      <c r="L1" s="21">
+      <c r="L1" s="57">
         <v>4</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="57">
         <v>3</v>
       </c>
-      <c r="N1" s="21">
+      <c r="N1" s="57">
         <v>2</v>
       </c>
       <c r="O1" s="19"/>
-    </row>
-    <row r="2" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="Q1" s="55"/>
+      <c r="R1" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="28">
+      <c r="S1" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="T1" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="U1" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="V1" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="W1" s="57">
+        <v>9</v>
+      </c>
+      <c r="X1" s="57">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="57">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="57">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="57">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="57">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="57">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="57">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="58"/>
+    </row>
+    <row r="2" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="26">
         <v>0.85</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="24">
         <v>0.6724</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="24">
         <v>0.66100000000000003</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="24">
         <v>0.6552</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="24">
         <v>0.65780000000000005</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="24">
         <v>0.63249999999999995</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="24">
         <v>0.62719999999999998</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="29">
         <v>0.59909999999999997</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="29">
         <v>0.59140000000000004</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="29">
         <v>0.59660000000000002</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="29">
         <v>0.59330000000000005</v>
       </c>
-      <c r="M2" s="31">
+      <c r="M2" s="29">
         <v>0.59279999999999999</v>
       </c>
-      <c r="N2" s="31">
+      <c r="N2" s="29">
         <v>0.56710000000000005</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="60" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="Q2" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="R2" s="68">
+        <v>86.2</v>
+      </c>
+      <c r="S2" s="69">
+        <v>68</v>
+      </c>
+      <c r="T2" s="69">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="U2" s="69">
+        <v>67.3</v>
+      </c>
+      <c r="V2" s="69">
+        <v>67</v>
+      </c>
+      <c r="W2" s="69">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="X2" s="69">
+        <v>64.8</v>
+      </c>
+      <c r="Y2" s="69">
+        <v>64.2</v>
+      </c>
+      <c r="Z2" s="69">
+        <v>63.8</v>
+      </c>
+      <c r="AA2" s="69">
+        <v>63.4</v>
+      </c>
+      <c r="AB2" s="69">
+        <v>63.1</v>
+      </c>
+      <c r="AC2" s="69">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="69">
+        <v>63.1</v>
+      </c>
+      <c r="AE2" s="60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="24">
         <v>0.64490000000000003</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <v>0.82</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="24">
         <v>0.63129999999999997</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <v>0.62919999999999998</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="24">
         <v>0.62929999999999997</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="24">
         <v>0.60470000000000002</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="29">
         <v>0.57730000000000004</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="29">
         <v>0.57479999999999998</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="29">
         <v>0.56850000000000001</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="29">
         <v>0.55740000000000001</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="25">
         <v>0.53190000000000004</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="25">
         <v>0.53779999999999994</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="25">
         <v>0.53380000000000005</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="60" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="Q3" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="R3" s="69">
+        <v>66.7</v>
+      </c>
+      <c r="S3" s="68">
+        <v>80.8</v>
+      </c>
+      <c r="T3" s="69">
+        <v>63.5</v>
+      </c>
+      <c r="U3" s="69">
+        <v>63.1</v>
+      </c>
+      <c r="V3" s="69">
+        <v>62.7</v>
+      </c>
+      <c r="W3" s="69">
+        <v>61.3</v>
+      </c>
+      <c r="X3" s="71">
+        <v>59.9</v>
+      </c>
+      <c r="Y3" s="71">
+        <v>59.8</v>
+      </c>
+      <c r="Z3" s="71">
+        <v>59.3</v>
+      </c>
+      <c r="AA3" s="71">
+        <v>58.6</v>
+      </c>
+      <c r="AB3" s="71">
+        <v>58.1</v>
+      </c>
+      <c r="AC3" s="71">
+        <v>58</v>
+      </c>
+      <c r="AD3" s="71">
+        <v>58</v>
+      </c>
+      <c r="AE3" s="60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>0.65490000000000004</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>0.61150000000000004</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26">
         <v>0.8</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="24">
         <v>0.6089</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="29">
         <v>0.59799999999999998</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="29">
         <v>0.56740000000000002</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="29">
         <v>0.55810000000000004</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="25">
         <v>0.54310000000000003</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="25">
         <v>0.52839999999999998</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="25">
         <v>0.53539999999999999</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="25">
         <v>0.52349999999999997</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="25">
         <v>0.51519999999999999</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="25">
         <v>0.50039999999999996</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="60" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="Q4" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="R4" s="69">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="S4" s="69">
+        <v>61.7</v>
+      </c>
+      <c r="T4" s="68">
+        <v>76.3</v>
+      </c>
+      <c r="U4" s="71">
+        <v>59.5</v>
+      </c>
+      <c r="V4" s="71">
+        <v>59</v>
+      </c>
+      <c r="W4" s="71">
+        <v>57.4</v>
+      </c>
+      <c r="X4" s="71">
+        <v>56.3</v>
+      </c>
+      <c r="Y4" s="71">
+        <v>55.1</v>
+      </c>
+      <c r="Z4" s="72">
+        <v>54.9</v>
+      </c>
+      <c r="AA4" s="72">
+        <v>54.1</v>
+      </c>
+      <c r="AB4" s="72">
+        <v>53.7</v>
+      </c>
+      <c r="AC4" s="72">
+        <v>53.5</v>
+      </c>
+      <c r="AD4" s="72">
+        <v>53.5</v>
+      </c>
+      <c r="AE4" s="60" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>0.62980000000000003</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>0.5927</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="29">
         <v>0.58150000000000002</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <v>0.77</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="29">
         <v>0.5696</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="29">
         <v>0.55410000000000004</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="25">
         <v>0.53810000000000002</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="25">
         <v>0.51749999999999996</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="25">
         <v>0.50890000000000002</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="34">
         <v>0.48870000000000002</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="34">
         <v>0.49659999999999999</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="34">
         <v>0.48270000000000002</v>
       </c>
-      <c r="N5" s="39">
+      <c r="N5" s="34">
         <v>0.47439999999999999</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="60" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="Q5" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="R5" s="69">
+        <v>65.7</v>
+      </c>
+      <c r="S5" s="69">
+        <v>61.2</v>
+      </c>
+      <c r="T5" s="71">
+        <v>57.4</v>
+      </c>
+      <c r="U5" s="68">
+        <v>72.2</v>
+      </c>
+      <c r="V5" s="71">
+        <v>56.4</v>
+      </c>
+      <c r="W5" s="72">
+        <v>54.4</v>
+      </c>
+      <c r="X5" s="72">
+        <v>53.2</v>
+      </c>
+      <c r="Y5" s="72">
+        <v>51.6</v>
+      </c>
+      <c r="Z5" s="72">
+        <v>50.7</v>
+      </c>
+      <c r="AA5" s="72">
+        <v>50.1</v>
+      </c>
+      <c r="AB5" s="70">
+        <v>49.9</v>
+      </c>
+      <c r="AC5" s="70">
+        <v>49.6</v>
+      </c>
+      <c r="AD5" s="70">
+        <v>49.4</v>
+      </c>
+      <c r="AE5" s="60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>0.6321</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>0.59799999999999998</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="29">
         <v>0.56510000000000005</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>0.54120000000000001</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="26">
         <v>0.75</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="25">
         <v>0.52669999999999995</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="25">
         <v>0.51859999999999995</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="25">
         <v>0.50309999999999999</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="25">
         <v>0.50249999999999995</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="34">
         <v>0.47270000000000001</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="34">
         <v>0.46700000000000003</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="34">
         <v>0.45390000000000003</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="23">
         <v>0.4446</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="60" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="Q6" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="R6" s="69">
+        <v>65</v>
+      </c>
+      <c r="S6" s="69">
+        <v>60.9</v>
+      </c>
+      <c r="T6" s="71">
+        <v>56.8</v>
+      </c>
+      <c r="U6" s="72">
+        <v>54.2</v>
+      </c>
+      <c r="V6" s="69">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="W6" s="72">
+        <v>52.5</v>
+      </c>
+      <c r="X6" s="72">
+        <v>50.4</v>
+      </c>
+      <c r="Y6" s="70">
+        <v>49.7</v>
+      </c>
+      <c r="Z6" s="70">
+        <v>47.8</v>
+      </c>
+      <c r="AA6" s="70">
+        <v>46.5</v>
+      </c>
+      <c r="AB6" s="70">
+        <v>46.3</v>
+      </c>
+      <c r="AC6" s="70">
+        <v>45.7</v>
+      </c>
+      <c r="AD6" s="70">
+        <v>46</v>
+      </c>
+      <c r="AE6" s="60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="59">
         <v>9</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <v>0.61260000000000003</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>0.57240000000000002</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="29">
         <v>0.55840000000000001</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>0.53869999999999996</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="25">
         <v>0.51870000000000005</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="26">
         <v>0.72</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="25">
         <v>0.50980000000000003</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="35">
         <v>0.48120000000000002</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="35">
         <v>0.4844</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="34">
         <v>0.45689999999999997</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="34">
         <v>0.45200000000000001</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="23">
         <v>0.43609999999999999</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="23">
         <v>0.42080000000000001</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="60">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="Q7" s="66">
+        <v>9</v>
+      </c>
+      <c r="R7" s="69">
+        <v>63.7</v>
+      </c>
+      <c r="S7" s="71">
+        <v>59</v>
+      </c>
+      <c r="T7" s="71">
+        <v>55.5</v>
+      </c>
+      <c r="U7" s="72">
+        <v>52.5</v>
+      </c>
+      <c r="V7" s="70">
+        <v>49.5</v>
+      </c>
+      <c r="W7" s="69">
+        <v>65.8</v>
+      </c>
+      <c r="X7" s="70">
+        <v>48.9</v>
+      </c>
+      <c r="Y7" s="70">
+        <v>46.9</v>
+      </c>
+      <c r="Z7" s="70">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="70">
+        <v>44.3</v>
+      </c>
+      <c r="AB7" s="70">
+        <v>42.8</v>
+      </c>
+      <c r="AC7" s="70">
+        <v>42.9</v>
+      </c>
+      <c r="AD7" s="70">
+        <v>42.4</v>
+      </c>
+      <c r="AE7" s="60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59">
         <v>8</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <v>0.60150000000000003</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="25">
         <v>0.53890000000000005</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <v>0.54</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>0.50800000000000001</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="34">
         <v>0.49719999999999998</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="34">
         <v>0.48720000000000002</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="24">
         <v>0.69</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="34">
         <v>0.48970000000000002</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="34">
         <v>0.46550000000000002</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="23">
         <v>0.44440000000000002</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="23">
         <v>0.4264</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="23">
         <v>0.42609999999999998</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="20">
         <v>0.39250000000000002</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="60">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="Q8" s="66">
+        <v>8</v>
+      </c>
+      <c r="R8" s="69">
+        <v>63.2</v>
+      </c>
+      <c r="S8" s="71">
+        <v>57.5</v>
+      </c>
+      <c r="T8" s="72">
+        <v>54</v>
+      </c>
+      <c r="U8" s="72">
+        <v>50.8</v>
+      </c>
+      <c r="V8" s="70">
+        <v>48.2</v>
+      </c>
+      <c r="W8" s="70">
+        <v>45.8</v>
+      </c>
+      <c r="X8" s="69">
+        <v>63.2</v>
+      </c>
+      <c r="Y8" s="70">
+        <v>45.1</v>
+      </c>
+      <c r="Z8" s="70">
+        <v>43.8</v>
+      </c>
+      <c r="AA8" s="70">
+        <v>42.4</v>
+      </c>
+      <c r="AB8" s="70">
+        <v>41.1</v>
+      </c>
+      <c r="AC8" s="70">
+        <v>40.1</v>
+      </c>
+      <c r="AD8" s="70">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59">
         <v>7</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="29">
         <v>0.58789999999999998</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="25">
         <v>0.54520000000000002</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <v>0.51670000000000005</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="34">
         <v>0.49580000000000002</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="34">
         <v>0.48630000000000001</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="36">
         <v>0.45429999999999998</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="34">
         <v>0.4501</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="24">
         <v>0.66</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="23">
         <v>0.44590000000000002</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="23">
         <v>0.42949999999999999</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="23">
         <v>0.41260000000000002</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="20">
         <v>0.3952</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="20">
         <v>0.37359999999999999</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="60">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="Q9" s="66">
+        <v>7</v>
+      </c>
+      <c r="R9" s="69">
+        <v>62.3</v>
+      </c>
+      <c r="S9" s="71">
+        <v>57.3</v>
+      </c>
+      <c r="T9" s="72">
+        <v>52.4</v>
+      </c>
+      <c r="U9" s="70">
+        <v>49.3</v>
+      </c>
+      <c r="V9" s="70">
+        <v>46.7</v>
+      </c>
+      <c r="W9" s="70">
+        <v>43.9</v>
+      </c>
+      <c r="X9" s="70">
+        <v>42.3</v>
+      </c>
+      <c r="Y9" s="69">
+        <v>60.7</v>
+      </c>
+      <c r="Z9" s="70">
+        <v>42.5</v>
+      </c>
+      <c r="AA9" s="70">
+        <v>41.1</v>
+      </c>
+      <c r="AB9" s="70">
+        <v>40</v>
+      </c>
+      <c r="AC9" s="70">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="AD9" s="70">
+        <v>38</v>
+      </c>
+      <c r="AE9" s="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59">
         <v>6</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="29">
         <v>0.58050000000000002</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <v>0.54730000000000001</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <v>0.51590000000000003</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="34">
         <v>0.48770000000000002</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="34">
         <v>0.45660000000000001</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="36">
         <v>0.4572</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="23">
         <v>0.4466</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="23">
         <v>0.42399999999999999</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="24">
         <v>0.64</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="36">
         <v>0.42470000000000002</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="36">
         <v>0.4284</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="30">
         <v>0.37819999999999998</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="30">
         <v>0.37869999999999998</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="60">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="Q10" s="66">
+        <v>6</v>
+      </c>
+      <c r="R10" s="69">
+        <v>62</v>
+      </c>
+      <c r="S10" s="71">
+        <v>56.5</v>
+      </c>
+      <c r="T10" s="72">
+        <v>51.9</v>
+      </c>
+      <c r="U10" s="70">
+        <v>47.7</v>
+      </c>
+      <c r="V10" s="70">
+        <v>45</v>
+      </c>
+      <c r="W10" s="70">
+        <v>42.8</v>
+      </c>
+      <c r="X10" s="70">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="Y10" s="70">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="Z10" s="71">
+        <v>58.7</v>
+      </c>
+      <c r="AA10" s="70">
+        <v>40</v>
+      </c>
+      <c r="AB10" s="70">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AC10" s="70">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AD10" s="70">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AE10" s="60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59">
         <v>5</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="29">
         <v>0.58720000000000006</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <v>0.53510000000000002</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <v>0.50329999999999997</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="34">
         <v>0.4632</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="23">
         <v>0.43830000000000002</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="36">
         <v>0.4178</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="23">
         <v>0.41699999999999998</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="23">
         <v>0.41099999999999998</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="36">
         <v>0.39950000000000002</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="24">
         <v>0.6</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="36">
         <v>0.4209</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="36">
         <v>0.40089999999999998</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="20">
         <v>0.37169999999999997</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="60">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="Q11" s="66">
+        <v>5</v>
+      </c>
+      <c r="R11" s="69">
+        <v>61.4</v>
+      </c>
+      <c r="S11" s="71">
+        <v>55.9</v>
+      </c>
+      <c r="T11" s="72">
+        <v>51.3</v>
+      </c>
+      <c r="U11" s="70">
+        <v>47.4</v>
+      </c>
+      <c r="V11" s="70">
+        <v>43.5</v>
+      </c>
+      <c r="W11" s="70">
+        <v>41.3</v>
+      </c>
+      <c r="X11" s="70">
+        <v>39.1</v>
+      </c>
+      <c r="Y11" s="70">
+        <v>37.6</v>
+      </c>
+      <c r="Z11" s="70">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AA11" s="71">
+        <v>56.6</v>
+      </c>
+      <c r="AB11" s="70">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AC11" s="70">
+        <v>36.4</v>
+      </c>
+      <c r="AD11" s="70">
+        <v>35.6</v>
+      </c>
+      <c r="AE11" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="59">
         <v>4</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="29">
         <v>0.55740000000000001</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="25">
         <v>0.52339999999999998</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="34">
         <v>0.496</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="34">
         <v>0.45750000000000002</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="36">
         <v>0.42459999999999998</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="36">
         <v>0.4219</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="20">
         <v>0.39489999999999997</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="20">
         <v>0.38390000000000002</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="36">
         <v>0.4</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="20">
         <v>0.38069999999999998</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="22">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="30">
         <v>0.38890000000000002</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="30">
         <v>0.38109999999999999</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="60">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="Q12" s="66">
+        <v>4</v>
+      </c>
+      <c r="R12" s="69">
+        <v>61</v>
+      </c>
+      <c r="S12" s="71">
+        <v>55.5</v>
+      </c>
+      <c r="T12" s="72">
+        <v>50.9</v>
+      </c>
+      <c r="U12" s="70">
+        <v>47</v>
+      </c>
+      <c r="V12" s="70">
+        <v>43.1</v>
+      </c>
+      <c r="W12" s="70">
+        <v>39.6</v>
+      </c>
+      <c r="X12" s="70">
+        <v>38</v>
+      </c>
+      <c r="Y12" s="70">
+        <v>36.5</v>
+      </c>
+      <c r="Z12" s="70">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="AA12" s="70">
+        <v>34</v>
+      </c>
+      <c r="AB12" s="72">
+        <v>54.6</v>
+      </c>
+      <c r="AC12" s="70">
+        <v>35.9</v>
+      </c>
+      <c r="AD12" s="70">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AE12" s="60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="59">
         <v>3</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="29">
         <v>0.56079999999999997</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <v>0.5151</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="34">
         <v>0.47560000000000002</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="34">
         <v>0.4612</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="36">
         <v>0.42849999999999999</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="23">
         <v>0.40400000000000003</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="20">
         <v>0.37380000000000002</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="20">
         <v>0.36959999999999998</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="20">
         <v>0.35799999999999998</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="30">
         <v>0.3493</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="30">
         <v>0.35649999999999998</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="25">
         <v>0.53</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="30">
         <v>0.36670000000000003</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="60">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="Q13" s="66">
+        <v>3</v>
+      </c>
+      <c r="R13" s="69">
+        <v>60.5</v>
+      </c>
+      <c r="S13" s="71">
+        <v>55.5</v>
+      </c>
+      <c r="T13" s="72">
+        <v>50.9</v>
+      </c>
+      <c r="U13" s="70">
+        <v>46.7</v>
+      </c>
+      <c r="V13" s="70">
+        <v>42.8</v>
+      </c>
+      <c r="W13" s="70">
+        <v>39.6</v>
+      </c>
+      <c r="X13" s="70">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="Y13" s="70">
+        <v>35.1</v>
+      </c>
+      <c r="Z13" s="70">
+        <v>34</v>
+      </c>
+      <c r="AA13" s="70">
+        <v>32.9</v>
+      </c>
+      <c r="AB13" s="70">
+        <v>31.9</v>
+      </c>
+      <c r="AC13" s="72">
+        <v>52.6</v>
+      </c>
+      <c r="AD13" s="70">
+        <v>34.4</v>
+      </c>
+      <c r="AE13" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59">
         <v>2</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="29">
         <v>0.55730000000000002</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="25">
         <v>0.5242</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="34">
         <v>0.47260000000000002</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="23">
         <v>0.439</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="36">
         <v>0.42659999999999998</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="20">
         <v>0.39789999999999998</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="20">
         <v>0.36380000000000001</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="20">
         <v>0.35249999999999998</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="20">
         <v>0.34150000000000003</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="30">
         <v>0.33810000000000001</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="30">
         <v>0.34889999999999999</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="20">
         <v>0.32379999999999998</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="25">
         <v>0.5</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="60">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35" t="s">
+      <c r="Q14" s="66">
+        <v>2</v>
+      </c>
+      <c r="R14" s="69">
+        <v>60.7</v>
+      </c>
+      <c r="S14" s="71">
+        <v>55.4</v>
+      </c>
+      <c r="T14" s="72">
+        <v>50.7</v>
+      </c>
+      <c r="U14" s="70">
+        <v>46.7</v>
+      </c>
+      <c r="V14" s="70">
+        <v>42.6</v>
+      </c>
+      <c r="W14" s="70">
+        <v>39.4</v>
+      </c>
+      <c r="X14" s="70">
+        <v>36.6</v>
+      </c>
+      <c r="Y14" s="70">
+        <v>34.5</v>
+      </c>
+      <c r="Z14" s="70">
+        <v>33</v>
+      </c>
+      <c r="AA14" s="70">
+        <v>31.8</v>
+      </c>
+      <c r="AB14" s="70">
+        <v>30.9</v>
+      </c>
+      <c r="AC14" s="70">
+        <v>30.5</v>
+      </c>
+      <c r="AD14" s="72">
+        <v>50.8</v>
+      </c>
+      <c r="AE14" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="33" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="63">
         <v>9</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="63">
         <v>8</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="63">
         <v>7</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="63">
         <v>6</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="63">
         <v>5</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="63">
         <v>4</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="63">
         <v>3</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="63">
         <v>2</v>
       </c>
-      <c r="O15" s="37"/>
-    </row>
-    <row r="16" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="28">
+      <c r="O15" s="32"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="S15" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="T15" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="U15" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="V15" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="W15" s="63">
+        <v>9</v>
+      </c>
+      <c r="X15" s="63">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="63">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="63">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="63">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="63">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="63">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="63">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="64"/>
+    </row>
+    <row r="16" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="26">
         <v>0.7</v>
       </c>
       <c r="D16" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="28"/>
       <c r="G16" t="s">
         <v>152</v>
       </c>
-      <c r="I16" s="29"/>
+      <c r="I16" s="27"/>
       <c r="J16" t="s">
         <v>151</v>
       </c>
-      <c r="L16" s="27"/>
+      <c r="L16" s="25"/>
       <c r="M16" t="s">
         <v>153</v>
+      </c>
+      <c r="S16" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="T16" t="s">
+        <v>154</v>
+      </c>
+      <c r="V16" s="28"/>
+      <c r="W16" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y16" s="71"/>
+      <c r="Z16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB16" s="72"/>
+      <c r="AC16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="D18" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="U18" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="D18:K18"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="A1:N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="11" customWidth="1"/>
+    <col min="2" max="14" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="54" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="54">
+        <v>9</v>
+      </c>
+      <c r="H1" s="54">
+        <v>8</v>
+      </c>
+      <c r="I1" s="54">
+        <v>7</v>
+      </c>
+      <c r="J1" s="54">
+        <v>6</v>
+      </c>
+      <c r="K1" s="54">
+        <v>5</v>
+      </c>
+      <c r="L1" s="54">
+        <v>4</v>
+      </c>
+      <c r="M1" s="54">
+        <v>3</v>
+      </c>
+      <c r="N1" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2">
+        <v>85.9</v>
+      </c>
+      <c r="C2">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="D2">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="E2">
+        <v>67.5</v>
+      </c>
+      <c r="F2">
+        <v>67.2</v>
+      </c>
+      <c r="G2">
+        <v>65.8</v>
+      </c>
+      <c r="H2">
+        <v>65</v>
+      </c>
+      <c r="I2">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="J2">
+        <v>63.9</v>
+      </c>
+      <c r="K2">
+        <v>63.4</v>
+      </c>
+      <c r="L2">
+        <v>63.3</v>
+      </c>
+      <c r="M2">
+        <v>63.2</v>
+      </c>
+      <c r="N2">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="C3">
+        <v>80.8</v>
+      </c>
+      <c r="D3">
+        <v>63.7</v>
+      </c>
+      <c r="E3">
+        <v>63.3</v>
+      </c>
+      <c r="F3">
+        <v>63</v>
+      </c>
+      <c r="G3">
+        <v>61.7</v>
+      </c>
+      <c r="H3">
+        <v>59.8</v>
+      </c>
+      <c r="I3">
+        <v>59.9</v>
+      </c>
+      <c r="J3">
+        <v>59.1</v>
+      </c>
+      <c r="K3">
+        <v>58.1</v>
+      </c>
+      <c r="L3">
+        <v>57.8</v>
+      </c>
+      <c r="M3">
+        <v>57.8</v>
+      </c>
+      <c r="N3">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="C4">
+        <v>61.9</v>
+      </c>
+      <c r="D4">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="E4">
+        <v>59.6</v>
+      </c>
+      <c r="F4">
+        <v>59.4</v>
+      </c>
+      <c r="G4">
+        <v>57.6</v>
+      </c>
+      <c r="H4">
+        <v>56</v>
+      </c>
+      <c r="I4">
+        <v>55.1</v>
+      </c>
+      <c r="J4">
+        <v>54.2</v>
+      </c>
+      <c r="K4">
+        <v>54.2</v>
+      </c>
+      <c r="L4">
+        <v>53.9</v>
+      </c>
+      <c r="M4">
+        <v>53.3</v>
+      </c>
+      <c r="N4">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="C5">
+        <v>61.1</v>
+      </c>
+      <c r="D5">
+        <v>57.6</v>
+      </c>
+      <c r="E5">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F5">
+        <v>56.4</v>
+      </c>
+      <c r="G5">
+        <v>54.7</v>
+      </c>
+      <c r="H5">
+        <v>53.5</v>
+      </c>
+      <c r="I5">
+        <v>51.9</v>
+      </c>
+      <c r="J5">
+        <v>50.2</v>
+      </c>
+      <c r="K5">
+        <v>50.1</v>
+      </c>
+      <c r="L5">
+        <v>49.8</v>
+      </c>
+      <c r="M5">
+        <v>49.3</v>
+      </c>
+      <c r="N5">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6">
+        <v>65.3</v>
+      </c>
+      <c r="C6">
+        <v>61.2</v>
+      </c>
+      <c r="D6">
+        <v>57.3</v>
+      </c>
+      <c r="E6">
+        <v>54</v>
+      </c>
+      <c r="F6">
+        <v>69</v>
+      </c>
+      <c r="G6">
+        <v>51.9</v>
+      </c>
+      <c r="H6">
+        <v>51.2</v>
+      </c>
+      <c r="I6">
+        <v>49.6</v>
+      </c>
+      <c r="J6">
+        <v>47.9</v>
+      </c>
+      <c r="K6">
+        <v>46.5</v>
+      </c>
+      <c r="L6">
+        <v>46.3</v>
+      </c>
+      <c r="M6">
+        <v>46.1</v>
+      </c>
+      <c r="N6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>62.9</v>
+      </c>
+      <c r="C7">
+        <v>59.4</v>
+      </c>
+      <c r="D7">
+        <v>55.5</v>
+      </c>
+      <c r="E7">
+        <v>52.2</v>
+      </c>
+      <c r="F7">
+        <v>49.7</v>
+      </c>
+      <c r="G7">
+        <v>65.7</v>
+      </c>
+      <c r="H7">
+        <v>48.5</v>
+      </c>
+      <c r="I7">
+        <v>47.1</v>
+      </c>
+      <c r="J7">
+        <v>45.7</v>
+      </c>
+      <c r="K7">
+        <v>44.3</v>
+      </c>
+      <c r="L7">
+        <v>42.4</v>
+      </c>
+      <c r="M7">
+        <v>42.9</v>
+      </c>
+      <c r="N7">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>63.3</v>
+      </c>
+      <c r="C8">
+        <v>57.8</v>
+      </c>
+      <c r="D8">
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>50.7</v>
+      </c>
+      <c r="F8">
+        <v>48.1</v>
+      </c>
+      <c r="G8">
+        <v>45.8</v>
+      </c>
+      <c r="H8">
+        <v>63.2</v>
+      </c>
+      <c r="I8">
+        <v>45.3</v>
+      </c>
+      <c r="J8">
+        <v>43.8</v>
+      </c>
+      <c r="K8">
+        <v>42.4</v>
+      </c>
+      <c r="L8">
+        <v>41.1</v>
+      </c>
+      <c r="M8">
+        <v>40.1</v>
+      </c>
+      <c r="N8">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>62.5</v>
+      </c>
+      <c r="C9">
+        <v>57.4</v>
+      </c>
+      <c r="D9">
+        <v>52.6</v>
+      </c>
+      <c r="E9">
+        <v>49.1</v>
+      </c>
+      <c r="F9">
+        <v>46.6</v>
+      </c>
+      <c r="G9">
+        <v>44.3</v>
+      </c>
+      <c r="H9">
+        <v>42.4</v>
+      </c>
+      <c r="I9">
+        <v>60.6</v>
+      </c>
+      <c r="J9">
+        <v>42.9</v>
+      </c>
+      <c r="K9">
+        <v>41</v>
+      </c>
+      <c r="L9">
+        <v>39.9</v>
+      </c>
+      <c r="M9">
+        <v>38.4</v>
+      </c>
+      <c r="N9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>61.7</v>
+      </c>
+      <c r="C10">
+        <v>56.8</v>
+      </c>
+      <c r="D10">
+        <v>52.1</v>
+      </c>
+      <c r="E10">
+        <v>47.7</v>
+      </c>
+      <c r="F10">
+        <v>44.9</v>
+      </c>
+      <c r="G10">
+        <v>42.9</v>
+      </c>
+      <c r="H10">
+        <v>41.1</v>
+      </c>
+      <c r="I10">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="J10">
+        <v>58.7</v>
+      </c>
+      <c r="K10">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="L10">
+        <v>38.9</v>
+      </c>
+      <c r="M10">
+        <v>37.6</v>
+      </c>
+      <c r="N10">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>61.2</v>
+      </c>
+      <c r="C11">
+        <v>56.2</v>
+      </c>
+      <c r="D11">
+        <v>51.1</v>
+      </c>
+      <c r="E11">
+        <v>47.5</v>
+      </c>
+      <c r="F11">
+        <v>43.5</v>
+      </c>
+      <c r="G11">
+        <v>41.5</v>
+      </c>
+      <c r="H11">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="I11">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="J11">
+        <v>36.6</v>
+      </c>
+      <c r="K11">
+        <v>56.5</v>
+      </c>
+      <c r="L11">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="M11">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="N11">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>61.2</v>
+      </c>
+      <c r="C12">
+        <v>55.8</v>
+      </c>
+      <c r="D12">
+        <v>50.9</v>
+      </c>
+      <c r="E12">
+        <v>46.9</v>
+      </c>
+      <c r="F12">
+        <v>43.1</v>
+      </c>
+      <c r="G12">
+        <v>39.9</v>
+      </c>
+      <c r="H12">
+        <v>37.9</v>
+      </c>
+      <c r="I12">
+        <v>36.5</v>
+      </c>
+      <c r="J12">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="K12">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="L12">
+        <v>54.2</v>
+      </c>
+      <c r="M12">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="N12">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>60.8</v>
+      </c>
+      <c r="C13">
+        <v>55.7</v>
+      </c>
+      <c r="D13">
+        <v>51.1</v>
+      </c>
+      <c r="E13">
+        <v>47</v>
+      </c>
+      <c r="F13">
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H13">
+        <v>36.5</v>
+      </c>
+      <c r="I13">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="J13">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K13">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="L13">
+        <v>32.4</v>
+      </c>
+      <c r="M13">
+        <v>52.9</v>
+      </c>
+      <c r="N13">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>60.6</v>
+      </c>
+      <c r="C14">
+        <v>55.3</v>
+      </c>
+      <c r="D14">
+        <v>50.5</v>
+      </c>
+      <c r="E14">
+        <v>46.8</v>
+      </c>
+      <c r="F14">
+        <v>42.8</v>
+      </c>
+      <c r="G14">
+        <v>39.5</v>
+      </c>
+      <c r="H14">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="I14">
+        <v>34.1</v>
+      </c>
+      <c r="J14">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="K14">
+        <v>31.8</v>
+      </c>
+      <c r="L14">
+        <v>31.4</v>
+      </c>
+      <c r="M14">
+        <v>30.6</v>
+      </c>
+      <c r="N14">
+        <v>51.1</v>
       </c>
     </row>
   </sheetData>
@@ -4048,461 +5469,461 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H1" sqref="H1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="4.125" style="46"/>
+    <col min="1" max="7" width="4.125" style="41"/>
     <col min="8" max="8" width="16.375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="4.125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="47">
+      <c r="A1" s="42">
         <v>4</v>
       </c>
-      <c r="B1" s="47">
+      <c r="B1" s="42">
         <v>3</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="55" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="51" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="47">
+      <c r="A2" s="52">
         <v>4</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="52">
         <v>2</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="53">
         <v>1</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="A3" s="42">
         <v>4</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="42">
         <v>1</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="45">
         <v>1</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="45">
         <v>1</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="55"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="A4" s="42">
         <v>3</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="42">
         <v>3</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="55"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="47">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="42">
         <v>2</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="45">
         <v>2</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="55"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
+      <c r="A6" s="42">
         <v>3</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="42">
         <v>2</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="45">
         <v>1</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="45">
         <v>1</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="55"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="53">
+      <c r="A7" s="48">
         <v>3</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="48">
         <v>1</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="47">
         <v>1</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="47">
         <v>1</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="47">
         <v>1</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="55"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="47">
+      <c r="A8" s="42">
         <v>2</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="42">
         <v>2</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="45">
         <v>2</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="45">
         <v>1</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="55"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="51"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="53">
+      <c r="A9" s="48">
         <v>2</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="48">
         <v>2</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="49">
         <v>1</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="47">
         <v>1</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="47">
         <v>1</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="55"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="53">
+      <c r="A10" s="48">
         <v>2</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="48">
         <v>1</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="49">
         <v>1</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="47">
         <v>1</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="47">
         <v>1</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="47">
         <v>1</v>
       </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="55"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="51"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="51">
+      <c r="A11" s="46">
         <v>1</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="46">
         <v>1</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="47">
         <v>1</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="47">
         <v>1</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="47">
         <v>1</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="47">
         <v>1</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="47">
         <v>1</v>
       </c>
-      <c r="H11" s="55"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="50">
+      <c r="A19" s="45">
         <v>7</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="55" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="51" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="50">
+      <c r="A20" s="45">
         <v>6</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="44">
         <v>1</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="55"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="51"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="50">
+      <c r="A21" s="45">
         <v>5</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="44">
         <v>2</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="55"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="51"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="50">
+      <c r="A22" s="45">
         <v>5</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="44">
         <v>1</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="44">
         <v>1</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="55"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="49">
+      <c r="A23" s="44">
         <v>4</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="44">
         <v>3</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="55"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="51"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="49">
+      <c r="A24" s="44">
         <v>4</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="44">
         <v>2</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="44">
         <v>1</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="55"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="49">
+      <c r="A25" s="44">
         <v>4</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="44">
         <v>1</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="44">
         <v>1</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="44">
         <v>1</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="55"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="49">
+      <c r="A26" s="44">
         <v>3</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="44">
         <v>3</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="44">
         <v>1</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="55"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="51"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="49">
+      <c r="A27" s="44">
         <v>3</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="44">
         <v>2</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="44">
         <v>2</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="55"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="51"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="49">
+      <c r="A28" s="44">
         <v>3</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="44">
         <v>2</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="44">
         <v>1</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="44">
         <v>1</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="55"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="51"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="49">
+      <c r="A29" s="44">
         <v>2</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="44">
         <v>2</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="44">
         <v>2</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D29" s="44">
         <v>1</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="55"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4515,7 +5936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
@@ -4529,69 +5950,69 @@
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="4.5" style="56" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="50" customWidth="1"/>
     <col min="11" max="11" width="3.5" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="30">
+      <c r="A1" s="28">
         <v>249900</v>
       </c>
-      <c r="B1" s="30">
+      <c r="B1" s="28">
         <v>0</v>
       </c>
-      <c r="C1" s="30">
+      <c r="C1" s="28">
         <v>0</v>
       </c>
-      <c r="D1" s="30">
+      <c r="D1" s="28">
         <v>0</v>
       </c>
-      <c r="E1" s="30">
+      <c r="E1" s="28">
         <v>0</v>
       </c>
-      <c r="F1" s="30">
+      <c r="F1" s="28">
         <v>1</v>
       </c>
-      <c r="G1" s="30">
+      <c r="G1" s="28">
         <v>2</v>
       </c>
-      <c r="H1" s="30">
+      <c r="H1" s="28">
         <v>3</v>
       </c>
-      <c r="I1" s="30">
+      <c r="I1" s="28">
         <v>4</v>
       </c>
-      <c r="J1" s="30">
+      <c r="J1" s="28">
         <v>48</v>
       </c>
-      <c r="L1" s="30">
+      <c r="L1" s="28">
         <v>1</v>
       </c>
-      <c r="M1" s="30">
+      <c r="M1" s="28">
         <v>2</v>
       </c>
-      <c r="N1" s="30">
+      <c r="N1" s="28">
         <v>3</v>
       </c>
-      <c r="O1" s="30">
+      <c r="O1" s="28">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
+      <c r="A2" s="28">
         <v>230300</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="40">
         <v>19600</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="28">
         <v>0</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="28">
         <v>0</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="28">
         <v>0</v>
       </c>
       <c r="I2">
@@ -4614,19 +6035,19 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="30">
+      <c r="A3" s="28">
         <v>211876</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="28">
         <v>36848</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="28">
         <v>1176</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="28">
         <v>0</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="28">
         <v>0</v>
       </c>
       <c r="I3">
@@ -4635,45 +6056,45 @@
       <c r="J3">
         <v>46</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="28">
         <v>1</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="28">
         <v>4</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="28">
         <v>5</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="28">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="30">
+      <c r="A4" s="28">
         <v>194580</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <v>51888</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="28">
         <v>3384</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="28">
         <v>48</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="28">
         <v>0</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="28">
         <v>7</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="28">
         <v>45</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="28">
         <v>5</v>
       </c>
       <c r="N4">
@@ -4684,62 +6105,62 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="30">
+      <c r="A5" s="28">
         <v>178365</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="28">
         <v>64860</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="28">
         <v>6486</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
         <v>188</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="28">
         <v>1</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5">
         <v>8</v>
       </c>
       <c r="J5">
         <v>44</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="28">
         <v>1</v>
       </c>
       <c r="M5">
         <v>6</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="28">
         <v>7</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="28">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+      <c r="A6" s="28">
         <v>163185</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="28">
         <v>75900</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="28">
         <v>10350</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="28">
         <v>460</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="28">
         <v>5</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6">
         <v>9</v>
       </c>
@@ -4749,7 +6170,7 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="28">
         <v>7</v>
       </c>
       <c r="N6">
@@ -4760,62 +6181,62 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+      <c r="A7" s="28">
         <v>148995</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="28">
         <v>85140</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="28">
         <v>14850</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="28">
         <v>900</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="28">
         <v>15</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="30">
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="28">
         <v>10</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="28">
         <v>42</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="28">
         <v>1</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="28">
         <v>8</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="28">
         <v>9</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="28">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
+      <c r="A8" s="28">
         <v>135751</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="28">
         <v>92708</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="28">
         <v>19866</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="28">
         <v>1540</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="28">
         <v>35</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="I8">
         <v>11</v>
       </c>
@@ -4836,24 +6257,24 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
+      <c r="A9" s="28">
         <v>123410</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="28">
         <v>98728</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="28">
         <v>25284</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="28">
         <v>2408</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="28">
         <v>70</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
       <c r="I9">
         <v>12</v>
       </c>
@@ -4862,45 +6283,45 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <v>111930</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="28">
         <v>103320</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="28">
         <v>30996</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="28">
         <v>3528</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="28">
         <v>126</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="30">
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="28">
         <v>13</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="28">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
+    <row r="11" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28">
         <v>101270</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="28">
         <v>106600</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="28">
         <v>36900</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="28">
         <v>4920</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="28">
         <v>210</v>
       </c>
       <c r="I11">
@@ -4910,20 +6331,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
+    <row r="12" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28">
         <v>91390</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="28">
         <v>108680</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="28">
         <v>42900</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="28">
         <v>6600</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="28">
         <v>330</v>
       </c>
       <c r="I12">
@@ -4933,43 +6354,43 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
+    <row r="13" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28">
         <v>82251</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="39">
         <v>109668</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="28">
         <v>48906</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="28">
         <v>8580</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="28">
         <v>495</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="28">
         <v>16</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="28">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
+    <row r="14" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28">
         <v>73815</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="39">
         <v>109668</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="28">
         <v>54834</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="28">
         <v>10868</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="28">
         <v>715</v>
       </c>
       <c r="I14">
@@ -4979,20 +6400,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
+    <row r="15" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28">
         <v>66045</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="28">
         <v>108780</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="28">
         <v>60606</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="28">
         <v>13468</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="28">
         <v>1001</v>
       </c>
       <c r="I15">
@@ -5002,43 +6423,43 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30">
+    <row r="16" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28">
         <v>58905</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="28">
         <v>107100</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="28">
         <v>66150</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="28">
         <v>16380</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="28">
         <v>1365</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="28">
         <v>19</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="28">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30">
+    <row r="17" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28">
         <v>52360</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="28">
         <v>104720</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="28">
         <v>71400</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="40">
         <v>19600</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="28">
         <v>1820</v>
       </c>
       <c r="F17"/>
@@ -5051,20 +6472,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
+    <row r="18" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28">
         <v>46376</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="28">
         <v>101728</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="28">
         <v>76296</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="28">
         <v>23120</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="28">
         <v>2380</v>
       </c>
       <c r="F18"/>
@@ -5077,46 +6498,46 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
+    <row r="19" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28">
         <v>40920</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="28">
         <v>98208</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="28">
         <v>80784</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="28">
         <v>26928</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="28">
         <v>3060</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" s="30">
+      <c r="I19" s="28">
         <v>22</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="28">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30">
+    <row r="20" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28">
         <v>35960</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="28">
         <v>94240</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="28">
         <v>84816</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="28">
         <v>31008</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="28">
         <v>3876</v>
       </c>
       <c r="F20"/>
@@ -5129,20 +6550,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30">
+    <row r="21" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28">
         <v>31465</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="28">
         <v>89900</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="28">
         <v>88350</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="28">
         <v>35340</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="28">
         <v>4845</v>
       </c>
       <c r="F21"/>
@@ -5155,55 +6576,55 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
+    <row r="22" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28">
         <v>27405</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="28">
         <v>85260</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="28">
         <v>91350</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="28">
         <v>39900</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="28">
         <v>5985</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="I22" s="30">
+      <c r="I22" s="28">
         <v>25</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="28">
         <v>27</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="28">
         <v>1</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="28">
         <v>48</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="30">
+      <c r="A23" s="28">
         <v>23751</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="28">
         <v>80388</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="28">
         <v>93786</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="28">
         <v>44660</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="28">
         <v>7315</v>
       </c>
       <c r="I23">
@@ -5223,19 +6644,19 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="30">
+      <c r="A24" s="28">
         <v>20475</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="28">
         <v>75348</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="28">
         <v>95634</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="28">
         <v>49588</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="28">
         <v>8855</v>
       </c>
       <c r="I24">
@@ -5244,36 +6665,36 @@
       <c r="J24">
         <v>25</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="28">
         <v>3</v>
       </c>
-      <c r="M24" s="30">
+      <c r="M24" s="28">
         <v>46</v>
       </c>
-      <c r="N24" s="30">
+      <c r="N24" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="30">
+      <c r="A25" s="28">
         <v>17550</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="28">
         <v>70200</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="28">
         <v>96876</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="28">
         <v>54648</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="28">
         <v>10626</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="28">
         <v>28</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="28">
         <v>24</v>
       </c>
       <c r="L25">
@@ -5287,19 +6708,19 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="30">
+      <c r="A26" s="28">
         <v>14950</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="28">
         <v>65000</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="28">
         <v>97500</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="28">
         <v>59800</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="28">
         <v>12650</v>
       </c>
       <c r="I26">
@@ -5308,30 +6729,30 @@
       <c r="J26">
         <v>23</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="28">
         <v>5</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="28">
         <v>44</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="43">
+      <c r="A27" s="38">
         <v>12650</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="38">
         <v>59800</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="38">
         <v>97500</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="38">
         <v>65000</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="38">
         <v>14950</v>
       </c>
       <c r="I27">
@@ -5351,51 +6772,51 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="43">
+      <c r="A28" s="38">
         <v>10626</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="38">
         <v>54648</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="38">
         <v>96876</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="38">
         <v>70200</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="38">
         <v>17550</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="28">
         <v>31</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="28">
         <v>21</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="28">
         <v>7</v>
       </c>
-      <c r="M28" s="30">
+      <c r="M28" s="28">
         <v>42</v>
       </c>
-      <c r="N28" s="30">
+      <c r="N28" s="28">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="43">
+      <c r="A29" s="38">
         <v>8855</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="38">
         <v>49588</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="38">
         <v>95634</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="38">
         <v>75348</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="38">
         <v>20475</v>
       </c>
       <c r="I29">
@@ -5415,19 +6836,19 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="43">
+      <c r="A30" s="38">
         <v>7315</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="38">
         <v>44660</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="38">
         <v>93786</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="38">
         <v>80388</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="38">
         <v>23751</v>
       </c>
       <c r="I30">
@@ -5436,36 +6857,36 @@
       <c r="J30">
         <v>19</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="28">
         <v>9</v>
       </c>
-      <c r="M30" s="30">
+      <c r="M30" s="28">
         <v>40</v>
       </c>
-      <c r="N30" s="30">
+      <c r="N30" s="28">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="43">
+      <c r="A31" s="38">
         <v>5985</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="38">
         <v>39900</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="38">
         <v>91350</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="38">
         <v>85260</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="38">
         <v>27405</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="28">
         <v>34</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="28">
         <v>18</v>
       </c>
       <c r="L31">
@@ -5479,19 +6900,19 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="43">
+      <c r="A32" s="38">
         <v>4845</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="38">
         <v>35340</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="38">
         <v>88350</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="38">
         <v>89900</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="38">
         <v>31465</v>
       </c>
       <c r="I32">
@@ -5500,24 +6921,24 @@
       <c r="J32">
         <v>17</v>
       </c>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="43">
+      <c r="A33" s="38">
         <v>3876</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="38">
         <v>31008</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="38">
         <v>84816</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="38">
         <v>94240</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="38">
         <v>35960</v>
       </c>
       <c r="I33">
@@ -5528,45 +6949,45 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="43">
+      <c r="A34" s="38">
         <v>3060</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="38">
         <v>26928</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="38">
         <v>80784</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="38">
         <v>98208</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="38">
         <v>40920</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="28">
         <v>37</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="28">
         <v>15</v>
       </c>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="43">
+      <c r="A35" s="38">
         <v>2380</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="38">
         <v>23120</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="38">
         <v>76296</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="38">
         <v>101728</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="38">
         <v>46376</v>
       </c>
       <c r="I35">
@@ -5577,19 +6998,19 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="43">
+      <c r="A36" s="38">
         <v>1820</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="40">
         <v>19600</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="38">
         <v>71400</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="38">
         <v>104720</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="38">
         <v>52360</v>
       </c>
       <c r="I36">
@@ -5598,47 +7019,47 @@
       <c r="J36">
         <v>13</v>
       </c>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="43">
+      <c r="A37" s="38">
         <v>1365</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="38">
         <v>16380</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="38">
         <v>66150</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="38">
         <v>107100</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="38">
         <v>58905</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="28">
         <v>40</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J37" s="28">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="43">
+      <c r="A38" s="38">
         <v>1001</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="38">
         <v>13468</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="38">
         <v>60606</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="38">
         <v>108780</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="38">
         <v>66045</v>
       </c>
       <c r="I38">
@@ -5647,24 +7068,24 @@
       <c r="J38">
         <v>11</v>
       </c>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="43">
+      <c r="A39" s="38">
         <v>715</v>
       </c>
-      <c r="B39" s="43">
+      <c r="B39" s="38">
         <v>10868</v>
       </c>
-      <c r="C39" s="43">
+      <c r="C39" s="38">
         <v>54834</v>
       </c>
-      <c r="D39" s="44">
+      <c r="D39" s="39">
         <v>109668</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="38">
         <v>73815</v>
       </c>
       <c r="I39">
@@ -5675,45 +7096,45 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="43">
+      <c r="A40" s="38">
         <v>495</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="38">
         <v>8580</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="38">
         <v>48906</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="39">
         <v>109668</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="38">
         <v>82251</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="28">
         <v>43</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="28">
         <v>9</v>
       </c>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="43">
+      <c r="A41" s="38">
         <v>330</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="38">
         <v>6600</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41" s="38">
         <v>42900</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="38">
         <v>108680</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="38">
         <v>91390</v>
       </c>
       <c r="I41">
@@ -5724,19 +7145,19 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="43">
+      <c r="A42" s="38">
         <v>210</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="38">
         <v>4920</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42" s="38">
         <v>36900</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="38">
         <v>106600</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="38">
         <v>101270</v>
       </c>
       <c r="I42">
@@ -5745,47 +7166,47 @@
       <c r="J42">
         <v>7</v>
       </c>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="43">
+      <c r="A43" s="38">
         <v>126</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="38">
         <v>3528</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="38">
         <v>30996</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D43" s="38">
         <v>103320</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="38">
         <v>111930</v>
       </c>
-      <c r="I43" s="30">
+      <c r="I43" s="28">
         <v>46</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="43">
+      <c r="A44" s="38">
         <v>70</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="38">
         <v>2408</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="38">
         <v>25284</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="38">
         <v>98728</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="38">
         <v>123410</v>
       </c>
       <c r="I44">
@@ -5794,24 +7215,24 @@
       <c r="J44">
         <v>5</v>
       </c>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="43">
+      <c r="A45" s="38">
         <v>35</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="38">
         <v>1540</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="38">
         <v>19866</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="38">
         <v>92708</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="38">
         <v>135751</v>
       </c>
       <c r="I45">
@@ -5822,45 +7243,45 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="43">
+      <c r="A46" s="38">
         <v>15</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="38">
         <v>900</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="38">
         <v>14850</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="38">
         <v>85140</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="38">
         <v>148995</v>
       </c>
-      <c r="I46" s="30">
+      <c r="I46" s="28">
         <v>49</v>
       </c>
-      <c r="J46" s="30">
+      <c r="J46" s="28">
         <v>3</v>
       </c>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="43">
+      <c r="A47" s="38">
         <v>5</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="38">
         <v>460</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="38">
         <v>10350</v>
       </c>
-      <c r="D47" s="43">
+      <c r="D47" s="38">
         <v>75900</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="38">
         <v>163185</v>
       </c>
       <c r="I47">
@@ -5871,104 +7292,104 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="43">
+      <c r="A48" s="38">
         <v>1</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="38">
         <v>188</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="38">
         <v>6486</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="38">
         <v>64860</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="38">
         <v>178365</v>
       </c>
       <c r="I48">
         <v>51</v>
       </c>
-      <c r="J48" s="56">
+      <c r="J48" s="50">
         <v>1</v>
       </c>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="43">
+      <c r="A49" s="38">
         <v>0</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="38">
         <v>48</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="38">
         <v>3384</v>
       </c>
-      <c r="D49" s="43">
+      <c r="D49" s="38">
         <v>51888</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="38">
         <v>194580</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="43">
+      <c r="A50" s="38">
         <v>0</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="38">
         <v>0</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="38">
         <v>1176</v>
       </c>
-      <c r="D50" s="43">
+      <c r="D50" s="38">
         <v>36848</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="38">
         <v>211876</v>
       </c>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="43">
+      <c r="A51" s="38">
         <v>0</v>
       </c>
-      <c r="B51" s="43">
+      <c r="B51" s="38">
         <v>0</v>
       </c>
-      <c r="C51" s="43">
+      <c r="C51" s="38">
         <v>0</v>
       </c>
-      <c r="D51" s="45">
+      <c r="D51" s="40">
         <v>19600</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="38">
         <v>230300</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="43">
+      <c r="A52" s="38">
         <v>0</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="38">
         <v>0</v>
       </c>
-      <c r="C52" s="43">
+      <c r="C52" s="38">
         <v>0</v>
       </c>
-      <c r="D52" s="43">
+      <c r="D52" s="38">
         <v>0</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="38">
         <v>249900</v>
       </c>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/poker.xlsx
+++ b/data/poker.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9675" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="20170208-10w-3.3hours" sheetId="6" r:id="rId2"/>
-    <sheet name="20180219-p2-5w-38min" sheetId="11" r:id="rId3"/>
-    <sheet name="成牌逻辑" sheetId="10" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="8" r:id="rId5"/>
+    <sheet name="成牌逻辑" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -28,692 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="159">
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♠</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♠</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♠</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♠</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♠</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♠</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♠</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♠</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♠</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♠</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♠</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♠</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♠</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A♦</t>
-  </si>
-  <si>
-    <t>K♦</t>
-  </si>
-  <si>
-    <t>Q♦</t>
-  </si>
-  <si>
-    <t>J♦</t>
-  </si>
-  <si>
-    <t>T♦</t>
-  </si>
-  <si>
-    <t>9♦</t>
-  </si>
-  <si>
-    <t>8♦</t>
-  </si>
-  <si>
-    <t>7♦</t>
-  </si>
-  <si>
-    <t>6♦</t>
-  </si>
-  <si>
-    <t>5♦</t>
-  </si>
-  <si>
-    <t>4♦</t>
-  </si>
-  <si>
-    <t>3♦</t>
-  </si>
-  <si>
-    <t>2♦</t>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♥</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>♣</t>
-    </r>
-  </si>
-  <si>
-    <t>同花顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>葫芦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三条</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两对</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
   <si>
     <t>a</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -751,203 +65,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>aA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>bK</t>
-  </si>
-  <si>
-    <t>bQ</t>
-  </si>
-  <si>
-    <t>bJ</t>
-  </si>
-  <si>
-    <t>bT</t>
-  </si>
-  <si>
-    <t>b9</t>
-  </si>
-  <si>
-    <t>b8</t>
-  </si>
-  <si>
-    <t>b7</t>
-  </si>
-  <si>
-    <t>b6</t>
-  </si>
-  <si>
-    <t>b5</t>
-  </si>
-  <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>b3</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>bA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dK</t>
-  </si>
-  <si>
-    <t>dQ</t>
-  </si>
-  <si>
-    <t>dJ</t>
-  </si>
-  <si>
-    <t>dT</t>
-  </si>
-  <si>
-    <t>d9</t>
-  </si>
-  <si>
-    <t>d8</t>
-  </si>
-  <si>
-    <t>d7</t>
-  </si>
-  <si>
-    <t>d6</t>
-  </si>
-  <si>
-    <t>d5</t>
-  </si>
-  <si>
-    <t>d4</t>
-  </si>
-  <si>
-    <t>d3</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
-    <t>cK</t>
-  </si>
-  <si>
-    <t>cQ</t>
-  </si>
-  <si>
-    <t>cJ</t>
-  </si>
-  <si>
-    <t>cT</t>
-  </si>
-  <si>
-    <t>c9</t>
-  </si>
-  <si>
-    <t>c8</t>
-  </si>
-  <si>
-    <t>c7</t>
-  </si>
-  <si>
-    <t>c6</t>
-  </si>
-  <si>
-    <t>c5</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     [,1] [,2] [,3] [,4] [,5] [,6] [,7] [,8] [,9] [,10] [,11] [,12] [,13]</t>
-  </si>
-  <si>
-    <t>[1,]    2   11   23   41   59   73   97  109  137   157   179   197   227</t>
-  </si>
-  <si>
-    <t>[2,]    3   13   29   43   61   79  101  113  139   163   181   199   229</t>
-  </si>
-  <si>
-    <t>[3,]    5   17   31   47   67   83  103  127  149   167   191   211   233</t>
-  </si>
-  <si>
-    <t>[4,]    7   19   37   53   71   89  107  131  151   173   193   223   239</t>
-  </si>
-  <si>
     <t>diff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9♣</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1056,7 +182,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1082,14 +208,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1098,23 +216,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1349,116 +452,116 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1474,97 +577,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1881,27 +981,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF42"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="Y16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC37" sqref="AC37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="5.625" customWidth="1"/>
+    <col min="9" max="13" width="3.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.375" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="24" width="2.5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.625" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="6.75" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="6.875" bestFit="1" customWidth="1"/>
@@ -1910,225 +1003,121 @@
     <col min="32" max="32" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="3"/>
+      <c r="P2" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>1</v>
+      </c>
+      <c r="R2" s="9">
+        <v>1</v>
+      </c>
+      <c r="S2" s="9">
+        <v>1</v>
+      </c>
+      <c r="T2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="3"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9">
+        <v>9</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1</v>
+      </c>
+      <c r="S3" s="9">
+        <v>1</v>
+      </c>
+      <c r="T3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="3"/>
+      <c r="P4" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="9">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="R4" s="9">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0</v>
+      </c>
+      <c r="T4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="T1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="T2" s="9">
-        <v>1</v>
-      </c>
-      <c r="U2" s="9">
-        <v>1</v>
-      </c>
-      <c r="V2" s="9">
-        <v>1</v>
-      </c>
-      <c r="W2" s="9">
-        <v>1</v>
-      </c>
-      <c r="X2" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9">
-        <v>9</v>
-      </c>
-      <c r="V3" s="9">
-        <v>1</v>
-      </c>
-      <c r="W3" s="9">
-        <v>1</v>
-      </c>
-      <c r="X3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="T4" s="9">
-        <v>2</v>
-      </c>
-      <c r="U4" s="9">
-        <v>0</v>
-      </c>
-      <c r="V4" s="9">
-        <v>0</v>
-      </c>
-      <c r="W4" s="9">
-        <v>0</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2143,46 +1132,36 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="P5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5">
-        <v>40</v>
-      </c>
-      <c r="R5">
-        <f>Q5*100/Q14</f>
-        <v>1.5390771693292702E-3</v>
-      </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="V5" s="9">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="9">
         <v>0</v>
       </c>
-      <c r="W5" s="9">
+      <c r="S5" s="9">
         <v>0</v>
       </c>
-      <c r="X5" s="9">
+      <c r="T5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3">
         <v>9</v>
@@ -2208,35 +1187,25 @@
       <c r="N6" s="3">
         <v>2</v>
       </c>
-      <c r="P6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6">
-        <v>624</v>
-      </c>
-      <c r="R6">
-        <f>Q6*100/Q14</f>
-        <v>2.4009603841536616E-2</v>
+      <c r="P6" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="T6" s="9">
-        <v>3</v>
-      </c>
-      <c r="U6" s="9">
         <v>0</v>
       </c>
-      <c r="V6" s="9">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -2277,33 +1246,23 @@
       <c r="N7" s="3">
         <v>49</v>
       </c>
-      <c r="P7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7">
-        <v>3744</v>
-      </c>
-      <c r="R7">
-        <f>Q7*100/Q14</f>
-        <v>0.14405762304921968</v>
-      </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9">
         <v>0</v>
       </c>
-      <c r="V7" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="W7" s="9">
+      <c r="R7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="9">
         <v>0</v>
       </c>
-      <c r="X7" s="9">
+      <c r="T7" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
@@ -2344,35 +1303,25 @@
       <c r="N8" s="6">
         <v>50</v>
       </c>
-      <c r="P8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q8">
-        <v>5108</v>
-      </c>
-      <c r="R8">
-        <f>Q8*100/Q14</f>
-        <v>0.1965401545233478</v>
-      </c>
-      <c r="T8" s="9">
+      <c r="P8" s="9">
         <v>4</v>
       </c>
-      <c r="U8" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
@@ -2413,36 +1362,25 @@
       <c r="N9" s="3">
         <v>51</v>
       </c>
-      <c r="P9" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>10200</v>
-      </c>
-      <c r="R9">
-        <f>Q9*100/Q14</f>
-        <v>0.39246467817896391</v>
-      </c>
-      <c r="S9" s="1"/>
+      <c r="P9" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="9">
+        <v>1</v>
+      </c>
       <c r="T9" s="9">
-        <v>5</v>
-      </c>
-      <c r="U9" s="1">
-        <v>1</v>
-      </c>
-      <c r="V9" s="9">
-        <v>1</v>
-      </c>
-      <c r="W9" s="9">
-        <v>1</v>
-      </c>
-      <c r="X9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B10" s="6">
         <v>4</v>
@@ -2483,899 +1421,519 @@
       <c r="N10" s="6">
         <v>52</v>
       </c>
-      <c r="P10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10">
-        <v>54912</v>
-      </c>
-      <c r="R10">
-        <f>Q10*100/Q14</f>
-        <v>2.112845138055222</v>
-      </c>
-      <c r="S10" s="1"/>
-      <c r="U10" s="1">
+      <c r="Q10" s="1">
         <v>9</v>
       </c>
-      <c r="V10" s="1">
-        <v>1</v>
-      </c>
-      <c r="W10" s="9">
-        <v>1</v>
-      </c>
-      <c r="X10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="P11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11">
-        <v>123552</v>
-      </c>
-      <c r="R11">
-        <f>Q11*100/Q14</f>
-        <v>4.7539015606242501</v>
-      </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="9">
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9">
+        <v>1</v>
+      </c>
+      <c r="T10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P11" s="9">
         <v>6</v>
       </c>
-      <c r="U11" s="1">
+      <c r="Q11" s="1">
         <v>0</v>
       </c>
-      <c r="V11" s="2">
+      <c r="R11" s="2">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>128</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="Q12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="P14" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="42.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="15">
+        <v>40</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D17" s="15">
+        <v>40</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F17" s="15">
+        <v>10</v>
+      </c>
+      <c r="G17" s="15">
+        <v>4</v>
+      </c>
+      <c r="H17" s="15">
+        <v>10</v>
+      </c>
+      <c r="P17" s="1">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
-        <v>7</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17" t="s">
+        <v>11</v>
+      </c>
+      <c r="T17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="15">
+        <v>624</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D18" s="15">
+        <v>664</v>
+      </c>
+      <c r="E18" s="15">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="F18" s="15">
+        <v>156</v>
+      </c>
+      <c r="G18" s="15">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3">
-        <v>2</v>
-      </c>
-      <c r="P12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1098240</v>
-      </c>
-      <c r="R12">
-        <f>Q12*100/Q14</f>
-        <v>42.256902761104442</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="U12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V12" s="1">
+      <c r="H18" s="15">
+        <v>166</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="W12" s="9">
+      <c r="S18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="15">
+        <v>3744</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="D19" s="15">
+        <v>4408</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.1696</v>
+      </c>
+      <c r="F19" s="15">
+        <v>156</v>
+      </c>
+      <c r="G19" s="15">
+        <v>24</v>
+      </c>
+      <c r="H19" s="15">
+        <v>322</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19">
         <v>0</v>
       </c>
-      <c r="X12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="T19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="15">
+        <v>5108</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="D20" s="15">
+        <v>9516</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1277</v>
+      </c>
+      <c r="G20" s="15">
         <v>4</v>
       </c>
-      <c r="F13" s="3">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>7</v>
-      </c>
-      <c r="I13" s="3">
-        <v>8</v>
-      </c>
-      <c r="J13" s="3">
-        <v>9</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="H20" s="15">
+        <v>1599</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="15">
+        <v>10200</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="D21" s="15">
+        <v>19716</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="F21" s="15">
         <v>10</v>
       </c>
-      <c r="L13" s="3">
-        <v>11</v>
-      </c>
-      <c r="M13" s="3">
-        <v>12</v>
-      </c>
-      <c r="N13" s="3">
-        <v>13</v>
-      </c>
-      <c r="P13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1302540</v>
-      </c>
-      <c r="R13">
-        <f>Q13*100/Q14</f>
-        <v>50.11773940345369</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="V13" t="s">
-        <v>128</v>
-      </c>
-      <c r="W13" s="9">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4</v>
-      </c>
-      <c r="F14" s="6">
-        <v>5</v>
-      </c>
-      <c r="G14" s="6">
-        <v>6</v>
-      </c>
-      <c r="H14" s="6">
-        <v>7</v>
-      </c>
-      <c r="I14" s="6">
-        <v>8</v>
-      </c>
-      <c r="J14" s="6">
-        <v>9</v>
-      </c>
-      <c r="K14" s="6">
-        <v>10</v>
-      </c>
-      <c r="L14" s="6">
-        <v>11</v>
-      </c>
-      <c r="M14" s="6">
-        <v>12</v>
-      </c>
-      <c r="N14" s="6">
-        <v>13</v>
-      </c>
-      <c r="Q14">
-        <f>SUM(Q5:Q13)</f>
-        <v>2598960</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1">
-        <v>7</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W14" s="9">
-        <v>0</v>
-      </c>
-      <c r="X14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6</v>
-      </c>
-      <c r="H15" s="3">
-        <v>7</v>
-      </c>
-      <c r="I15" s="3">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3">
-        <v>9</v>
-      </c>
-      <c r="K15" s="3">
-        <v>10</v>
-      </c>
-      <c r="L15" s="3">
-        <v>11</v>
-      </c>
-      <c r="M15" s="3">
-        <v>12</v>
-      </c>
-      <c r="N15" s="3">
-        <v>13</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="W15" t="s">
-        <v>128</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4</v>
-      </c>
-      <c r="F16" s="6">
-        <v>5</v>
-      </c>
-      <c r="G16" s="6">
-        <v>6</v>
-      </c>
-      <c r="H16" s="6">
-        <v>7</v>
-      </c>
-      <c r="I16" s="6">
-        <v>8</v>
-      </c>
-      <c r="J16" s="6">
-        <v>9</v>
-      </c>
-      <c r="K16" s="6">
-        <v>10</v>
-      </c>
-      <c r="L16" s="6">
-        <v>11</v>
-      </c>
-      <c r="M16" s="6">
-        <v>12</v>
-      </c>
-      <c r="N16" s="6">
-        <v>13</v>
-      </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" t="s">
-        <v>128</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="S17" s="1"/>
-      <c r="T17" s="1">
-        <v>8</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W17" t="s">
-        <v>128</v>
-      </c>
-      <c r="X17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" t="s">
-        <v>128</v>
-      </c>
-      <c r="X18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" t="s">
-        <v>92</v>
-      </c>
-      <c r="N19" t="s">
-        <v>93</v>
-      </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" t="s">
-        <v>115</v>
-      </c>
-      <c r="J20" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" t="s">
-        <v>119</v>
-      </c>
-      <c r="N20" t="s">
-        <v>120</v>
-      </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W20" t="s">
-        <v>128</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21" t="s">
-        <v>106</v>
-      </c>
-      <c r="M21" t="s">
-        <v>107</v>
-      </c>
-      <c r="N21" t="s">
-        <v>108</v>
+      <c r="G21" s="15">
+        <v>1020</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1609</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="2"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="15">
+        <v>54912</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2.1128</v>
+      </c>
+      <c r="D22" s="15">
+        <v>74628</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2.8714</v>
+      </c>
+      <c r="F22" s="15">
+        <v>858</v>
+      </c>
+      <c r="G22" s="15">
+        <v>64</v>
+      </c>
+      <c r="H22" s="15">
+        <v>2467</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="2"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="15">
+        <v>123552</v>
+      </c>
+      <c r="C23" s="15">
+        <v>4.7538999999999998</v>
+      </c>
+      <c r="D23" s="15">
+        <v>198180</v>
+      </c>
+      <c r="E23" s="15">
+        <v>7.6253000000000002</v>
+      </c>
+      <c r="F23" s="15">
+        <v>858</v>
+      </c>
+      <c r="G23" s="15">
+        <v>144</v>
+      </c>
+      <c r="H23" s="15">
+        <v>3325</v>
+      </c>
       <c r="S23" s="1"/>
       <c r="T23" s="2"/>
       <c r="U23" s="1"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15">
+        <v>1098240</v>
+      </c>
+      <c r="C24" s="15">
+        <v>42.256900000000002</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1296420</v>
+      </c>
+      <c r="E24" s="15">
+        <v>49.882199999999997</v>
+      </c>
+      <c r="F24" s="15">
+        <v>2860</v>
+      </c>
+      <c r="G24" s="15">
+        <v>384</v>
+      </c>
+      <c r="H24" s="15">
+        <v>6185</v>
+      </c>
       <c r="S24" s="1"/>
       <c r="T24" s="2"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15">
+        <v>1302540</v>
+      </c>
+      <c r="C25" s="15">
+        <v>50.117699999999999</v>
+      </c>
+      <c r="D25" s="15">
+        <v>2598960</v>
+      </c>
+      <c r="E25" s="15">
+        <v>99.999899999999997</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1277</v>
+      </c>
+      <c r="G25" s="15">
+        <v>1020</v>
+      </c>
+      <c r="H25" s="15">
+        <v>7462</v>
+      </c>
+    </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="A29" s="7"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>122</v>
-      </c>
+      <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>123</v>
-      </c>
+      <c r="A31" s="7"/>
       <c r="Y31" s="17"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA33" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB33" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC33" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD33" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE33" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF33" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
-      <c r="Y34" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z34" s="15">
-        <v>40</v>
-      </c>
-      <c r="AA34" s="15">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB34" s="15">
-        <v>40</v>
-      </c>
-      <c r="AC34" s="15">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AD34" s="15">
-        <v>10</v>
-      </c>
-      <c r="AE34" s="15">
-        <v>4</v>
-      </c>
-      <c r="AF34" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Y35" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z35" s="15">
-        <v>624</v>
-      </c>
-      <c r="AA35" s="15">
-        <v>2.4E-2</v>
-      </c>
-      <c r="AB35" s="15">
-        <v>664</v>
-      </c>
-      <c r="AC35" s="15">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="AD35" s="15">
-        <v>156</v>
-      </c>
-      <c r="AE35" s="15">
-        <v>4</v>
-      </c>
-      <c r="AF35" s="15">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Y36" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z36" s="15">
-        <v>3744</v>
-      </c>
-      <c r="AA36" s="15">
-        <v>0.14410000000000001</v>
-      </c>
-      <c r="AB36" s="15">
-        <v>4408</v>
-      </c>
-      <c r="AC36" s="15">
-        <v>0.1696</v>
-      </c>
-      <c r="AD36" s="15">
-        <v>156</v>
-      </c>
-      <c r="AE36" s="15">
-        <v>24</v>
-      </c>
-      <c r="AF36" s="15">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Y37" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z37" s="15">
-        <v>5108</v>
-      </c>
-      <c r="AA37" s="15">
-        <v>0.19650000000000001</v>
-      </c>
-      <c r="AB37" s="15">
-        <v>9516</v>
-      </c>
-      <c r="AC37" s="15">
-        <v>0.36609999999999998</v>
-      </c>
-      <c r="AD37" s="15">
-        <v>1277</v>
-      </c>
-      <c r="AE37" s="15">
-        <v>4</v>
-      </c>
-      <c r="AF37" s="15">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Y38" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z38" s="15">
-        <v>10200</v>
-      </c>
-      <c r="AA38" s="15">
-        <v>0.39250000000000002</v>
-      </c>
-      <c r="AB38" s="15">
-        <v>19716</v>
-      </c>
-      <c r="AC38" s="15">
-        <v>0.75860000000000005</v>
-      </c>
-      <c r="AD38" s="15">
-        <v>10</v>
-      </c>
-      <c r="AE38" s="15">
-        <v>1020</v>
-      </c>
-      <c r="AF38" s="15">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Y39" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z39" s="15">
-        <v>54912</v>
-      </c>
-      <c r="AA39" s="15">
-        <v>2.1128</v>
-      </c>
-      <c r="AB39" s="15">
-        <v>74628</v>
-      </c>
-      <c r="AC39" s="15">
-        <v>2.8714</v>
-      </c>
-      <c r="AD39" s="15">
-        <v>858</v>
-      </c>
-      <c r="AE39" s="15">
-        <v>64</v>
-      </c>
-      <c r="AF39" s="15">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Y40" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z40" s="15">
-        <v>123552</v>
-      </c>
-      <c r="AA40" s="15">
-        <v>4.7538999999999998</v>
-      </c>
-      <c r="AB40" s="15">
-        <v>198180</v>
-      </c>
-      <c r="AC40" s="15">
-        <v>7.6253000000000002</v>
-      </c>
-      <c r="AD40" s="15">
-        <v>858</v>
-      </c>
-      <c r="AE40" s="15">
-        <v>144</v>
-      </c>
-      <c r="AF40" s="15">
-        <v>3325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Y41" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z41" s="15">
-        <v>1098240</v>
-      </c>
-      <c r="AA41" s="15">
-        <v>42.256900000000002</v>
-      </c>
-      <c r="AB41" s="15">
-        <v>1296420</v>
-      </c>
-      <c r="AC41" s="15">
-        <v>49.882199999999997</v>
-      </c>
-      <c r="AD41" s="15">
-        <v>2860</v>
-      </c>
-      <c r="AE41" s="15">
-        <v>384</v>
-      </c>
-      <c r="AF41" s="15">
-        <v>6185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Y42" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z42" s="15">
-        <v>1302540</v>
-      </c>
-      <c r="AA42" s="15">
-        <v>50.117699999999999</v>
-      </c>
-      <c r="AB42" s="15">
-        <v>2598960</v>
-      </c>
-      <c r="AC42" s="15">
-        <v>99.999899999999997</v>
-      </c>
-      <c r="AD42" s="15">
-        <v>1277</v>
-      </c>
-      <c r="AE42" s="15">
-        <v>1020</v>
-      </c>
-      <c r="AF42" s="15">
-        <v>7462</v>
-      </c>
-    </row>
+    </row>
+    <row r="35" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3404,91 +1962,91 @@
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21"/>
-      <c r="B1" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="57">
+      <c r="B1" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="55">
         <v>9</v>
       </c>
-      <c r="H1" s="57">
+      <c r="H1" s="55">
         <v>8</v>
       </c>
-      <c r="I1" s="57">
+      <c r="I1" s="55">
         <v>7</v>
       </c>
-      <c r="J1" s="57">
+      <c r="J1" s="55">
         <v>6</v>
       </c>
-      <c r="K1" s="57">
+      <c r="K1" s="55">
         <v>5</v>
       </c>
-      <c r="L1" s="57">
+      <c r="L1" s="55">
         <v>4</v>
       </c>
-      <c r="M1" s="57">
+      <c r="M1" s="55">
         <v>3</v>
       </c>
-      <c r="N1" s="57">
+      <c r="N1" s="55">
         <v>2</v>
       </c>
       <c r="O1" s="19"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="S1" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="T1" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="U1" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="V1" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="W1" s="57">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="55">
         <v>9</v>
       </c>
-      <c r="X1" s="57">
+      <c r="X1" s="55">
         <v>8</v>
       </c>
-      <c r="Y1" s="57">
+      <c r="Y1" s="55">
         <v>7</v>
       </c>
-      <c r="Z1" s="57">
+      <c r="Z1" s="55">
         <v>6</v>
       </c>
-      <c r="AA1" s="57">
+      <c r="AA1" s="55">
         <v>5</v>
       </c>
-      <c r="AB1" s="57">
+      <c r="AB1" s="55">
         <v>4</v>
       </c>
-      <c r="AC1" s="57">
+      <c r="AC1" s="55">
         <v>3</v>
       </c>
-      <c r="AD1" s="57">
+      <c r="AD1" s="55">
         <v>2</v>
       </c>
-      <c r="AE1" s="58"/>
+      <c r="AE1" s="56"/>
     </row>
     <row r="2" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>146</v>
+      <c r="A2" s="57" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="26">
         <v>0.85</v>
@@ -3529,58 +2087,58 @@
       <c r="N2" s="29">
         <v>0.56710000000000005</v>
       </c>
-      <c r="O2" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q2" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="R2" s="68">
+      <c r="O2" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="65">
         <v>86.2</v>
       </c>
-      <c r="S2" s="69">
+      <c r="S2" s="66">
         <v>68</v>
       </c>
-      <c r="T2" s="69">
+      <c r="T2" s="66">
         <v>67.599999999999994</v>
       </c>
-      <c r="U2" s="69">
+      <c r="U2" s="66">
         <v>67.3</v>
       </c>
-      <c r="V2" s="69">
+      <c r="V2" s="66">
         <v>67</v>
       </c>
-      <c r="W2" s="69">
+      <c r="W2" s="66">
         <v>65.900000000000006</v>
       </c>
-      <c r="X2" s="69">
+      <c r="X2" s="66">
         <v>64.8</v>
       </c>
-      <c r="Y2" s="69">
+      <c r="Y2" s="66">
         <v>64.2</v>
       </c>
-      <c r="Z2" s="69">
+      <c r="Z2" s="66">
         <v>63.8</v>
       </c>
-      <c r="AA2" s="69">
+      <c r="AA2" s="66">
         <v>63.4</v>
       </c>
-      <c r="AB2" s="69">
+      <c r="AB2" s="66">
         <v>63.1</v>
       </c>
-      <c r="AC2" s="69">
+      <c r="AC2" s="66">
         <v>63</v>
       </c>
-      <c r="AD2" s="69">
+      <c r="AD2" s="66">
         <v>63.1</v>
       </c>
-      <c r="AE2" s="60" t="s">
-        <v>146</v>
+      <c r="AE2" s="58" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>147</v>
+      <c r="A3" s="57" t="s">
+        <v>29</v>
       </c>
       <c r="B3" s="24">
         <v>0.64490000000000003</v>
@@ -3621,58 +2179,58 @@
       <c r="N3" s="25">
         <v>0.53380000000000005</v>
       </c>
-      <c r="O3" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q3" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="R3" s="69">
+      <c r="O3" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="66">
         <v>66.7</v>
       </c>
-      <c r="S3" s="68">
+      <c r="S3" s="65">
         <v>80.8</v>
       </c>
-      <c r="T3" s="69">
+      <c r="T3" s="66">
         <v>63.5</v>
       </c>
-      <c r="U3" s="69">
+      <c r="U3" s="66">
         <v>63.1</v>
       </c>
-      <c r="V3" s="69">
+      <c r="V3" s="66">
         <v>62.7</v>
       </c>
-      <c r="W3" s="69">
+      <c r="W3" s="66">
         <v>61.3</v>
       </c>
-      <c r="X3" s="71">
+      <c r="X3" s="68">
         <v>59.9</v>
       </c>
-      <c r="Y3" s="71">
+      <c r="Y3" s="68">
         <v>59.8</v>
       </c>
-      <c r="Z3" s="71">
+      <c r="Z3" s="68">
         <v>59.3</v>
       </c>
-      <c r="AA3" s="71">
+      <c r="AA3" s="68">
         <v>58.6</v>
       </c>
-      <c r="AB3" s="71">
+      <c r="AB3" s="68">
         <v>58.1</v>
       </c>
-      <c r="AC3" s="71">
+      <c r="AC3" s="68">
         <v>58</v>
       </c>
-      <c r="AD3" s="71">
+      <c r="AD3" s="68">
         <v>58</v>
       </c>
-      <c r="AE3" s="60" t="s">
-        <v>147</v>
+      <c r="AE3" s="58" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>148</v>
+      <c r="A4" s="57" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="24">
         <v>0.65490000000000004</v>
@@ -3713,58 +2271,58 @@
       <c r="N4" s="25">
         <v>0.50039999999999996</v>
       </c>
-      <c r="O4" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q4" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="R4" s="69">
+      <c r="O4" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="66">
         <v>66.099999999999994</v>
       </c>
-      <c r="S4" s="69">
+      <c r="S4" s="66">
         <v>61.7</v>
       </c>
-      <c r="T4" s="68">
+      <c r="T4" s="65">
         <v>76.3</v>
       </c>
-      <c r="U4" s="71">
+      <c r="U4" s="68">
         <v>59.5</v>
       </c>
-      <c r="V4" s="71">
+      <c r="V4" s="68">
         <v>59</v>
       </c>
-      <c r="W4" s="71">
+      <c r="W4" s="68">
         <v>57.4</v>
       </c>
-      <c r="X4" s="71">
+      <c r="X4" s="68">
         <v>56.3</v>
       </c>
-      <c r="Y4" s="71">
+      <c r="Y4" s="68">
         <v>55.1</v>
       </c>
-      <c r="Z4" s="72">
+      <c r="Z4" s="69">
         <v>54.9</v>
       </c>
-      <c r="AA4" s="72">
+      <c r="AA4" s="69">
         <v>54.1</v>
       </c>
-      <c r="AB4" s="72">
+      <c r="AB4" s="69">
         <v>53.7</v>
       </c>
-      <c r="AC4" s="72">
+      <c r="AC4" s="69">
         <v>53.5</v>
       </c>
-      <c r="AD4" s="72">
+      <c r="AD4" s="69">
         <v>53.5</v>
       </c>
-      <c r="AE4" s="60" t="s">
-        <v>148</v>
+      <c r="AE4" s="58" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>149</v>
+      <c r="A5" s="57" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="24">
         <v>0.62980000000000003</v>
@@ -3805,58 +2363,58 @@
       <c r="N5" s="34">
         <v>0.47439999999999999</v>
       </c>
-      <c r="O5" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q5" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="R5" s="69">
+      <c r="O5" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="66">
         <v>65.7</v>
       </c>
-      <c r="S5" s="69">
+      <c r="S5" s="66">
         <v>61.2</v>
       </c>
-      <c r="T5" s="71">
+      <c r="T5" s="68">
         <v>57.4</v>
       </c>
-      <c r="U5" s="68">
+      <c r="U5" s="65">
         <v>72.2</v>
       </c>
-      <c r="V5" s="71">
+      <c r="V5" s="68">
         <v>56.4</v>
       </c>
-      <c r="W5" s="72">
+      <c r="W5" s="69">
         <v>54.4</v>
       </c>
-      <c r="X5" s="72">
+      <c r="X5" s="69">
         <v>53.2</v>
       </c>
-      <c r="Y5" s="72">
+      <c r="Y5" s="69">
         <v>51.6</v>
       </c>
-      <c r="Z5" s="72">
+      <c r="Z5" s="69">
         <v>50.7</v>
       </c>
-      <c r="AA5" s="72">
+      <c r="AA5" s="69">
         <v>50.1</v>
       </c>
-      <c r="AB5" s="70">
+      <c r="AB5" s="67">
         <v>49.9</v>
       </c>
-      <c r="AC5" s="70">
+      <c r="AC5" s="67">
         <v>49.6</v>
       </c>
-      <c r="AD5" s="70">
+      <c r="AD5" s="67">
         <v>49.4</v>
       </c>
-      <c r="AE5" s="60" t="s">
-        <v>149</v>
+      <c r="AE5" s="58" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>150</v>
+      <c r="A6" s="57" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="24">
         <v>0.6321</v>
@@ -3897,57 +2455,57 @@
       <c r="N6" s="23">
         <v>0.4446</v>
       </c>
-      <c r="O6" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q6" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="R6" s="69">
+      <c r="O6" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="66">
         <v>65</v>
       </c>
-      <c r="S6" s="69">
+      <c r="S6" s="66">
         <v>60.9</v>
       </c>
-      <c r="T6" s="71">
+      <c r="T6" s="68">
         <v>56.8</v>
       </c>
-      <c r="U6" s="72">
+      <c r="U6" s="69">
         <v>54.2</v>
       </c>
-      <c r="V6" s="69">
+      <c r="V6" s="66">
         <v>68.900000000000006</v>
       </c>
-      <c r="W6" s="72">
+      <c r="W6" s="69">
         <v>52.5</v>
       </c>
-      <c r="X6" s="72">
+      <c r="X6" s="69">
         <v>50.4</v>
       </c>
-      <c r="Y6" s="70">
+      <c r="Y6" s="67">
         <v>49.7</v>
       </c>
-      <c r="Z6" s="70">
+      <c r="Z6" s="67">
         <v>47.8</v>
       </c>
-      <c r="AA6" s="70">
+      <c r="AA6" s="67">
         <v>46.5</v>
       </c>
-      <c r="AB6" s="70">
+      <c r="AB6" s="67">
         <v>46.3</v>
       </c>
-      <c r="AC6" s="70">
+      <c r="AC6" s="67">
         <v>45.7</v>
       </c>
-      <c r="AD6" s="70">
+      <c r="AD6" s="67">
         <v>46</v>
       </c>
-      <c r="AE6" s="60" t="s">
-        <v>150</v>
+      <c r="AE6" s="58" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59">
+      <c r="A7" s="57">
         <v>9</v>
       </c>
       <c r="B7" s="24">
@@ -3989,57 +2547,57 @@
       <c r="N7" s="23">
         <v>0.42080000000000001</v>
       </c>
-      <c r="O7" s="60">
+      <c r="O7" s="58">
         <v>9</v>
       </c>
-      <c r="Q7" s="66">
+      <c r="Q7" s="63">
         <v>9</v>
       </c>
-      <c r="R7" s="69">
+      <c r="R7" s="66">
         <v>63.7</v>
       </c>
-      <c r="S7" s="71">
+      <c r="S7" s="68">
         <v>59</v>
       </c>
-      <c r="T7" s="71">
+      <c r="T7" s="68">
         <v>55.5</v>
       </c>
-      <c r="U7" s="72">
+      <c r="U7" s="69">
         <v>52.5</v>
       </c>
-      <c r="V7" s="70">
+      <c r="V7" s="67">
         <v>49.5</v>
       </c>
-      <c r="W7" s="69">
+      <c r="W7" s="66">
         <v>65.8</v>
       </c>
-      <c r="X7" s="70">
+      <c r="X7" s="67">
         <v>48.9</v>
       </c>
-      <c r="Y7" s="70">
+      <c r="Y7" s="67">
         <v>46.9</v>
       </c>
-      <c r="Z7" s="70">
+      <c r="Z7" s="67">
         <v>46</v>
       </c>
-      <c r="AA7" s="70">
+      <c r="AA7" s="67">
         <v>44.3</v>
       </c>
-      <c r="AB7" s="70">
+      <c r="AB7" s="67">
         <v>42.8</v>
       </c>
-      <c r="AC7" s="70">
+      <c r="AC7" s="67">
         <v>42.9</v>
       </c>
-      <c r="AD7" s="70">
+      <c r="AD7" s="67">
         <v>42.4</v>
       </c>
-      <c r="AE7" s="60">
+      <c r="AE7" s="58">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59">
+      <c r="A8" s="57">
         <v>8</v>
       </c>
       <c r="B8" s="24">
@@ -4081,57 +2639,57 @@
       <c r="N8" s="20">
         <v>0.39250000000000002</v>
       </c>
-      <c r="O8" s="60">
+      <c r="O8" s="58">
         <v>8</v>
       </c>
-      <c r="Q8" s="66">
+      <c r="Q8" s="63">
         <v>8</v>
       </c>
-      <c r="R8" s="69">
+      <c r="R8" s="66">
         <v>63.2</v>
       </c>
-      <c r="S8" s="71">
+      <c r="S8" s="68">
         <v>57.5</v>
       </c>
-      <c r="T8" s="72">
+      <c r="T8" s="69">
         <v>54</v>
       </c>
-      <c r="U8" s="72">
+      <c r="U8" s="69">
         <v>50.8</v>
       </c>
-      <c r="V8" s="70">
+      <c r="V8" s="67">
         <v>48.2</v>
       </c>
-      <c r="W8" s="70">
+      <c r="W8" s="67">
         <v>45.8</v>
       </c>
-      <c r="X8" s="69">
+      <c r="X8" s="66">
         <v>63.2</v>
       </c>
-      <c r="Y8" s="70">
+      <c r="Y8" s="67">
         <v>45.1</v>
       </c>
-      <c r="Z8" s="70">
+      <c r="Z8" s="67">
         <v>43.8</v>
       </c>
-      <c r="AA8" s="70">
+      <c r="AA8" s="67">
         <v>42.4</v>
       </c>
-      <c r="AB8" s="70">
+      <c r="AB8" s="67">
         <v>41.1</v>
       </c>
-      <c r="AC8" s="70">
+      <c r="AC8" s="67">
         <v>40.1</v>
       </c>
-      <c r="AD8" s="70">
+      <c r="AD8" s="67">
         <v>40</v>
       </c>
-      <c r="AE8" s="60">
+      <c r="AE8" s="58">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59">
+      <c r="A9" s="57">
         <v>7</v>
       </c>
       <c r="B9" s="29">
@@ -4173,57 +2731,57 @@
       <c r="N9" s="20">
         <v>0.37359999999999999</v>
       </c>
-      <c r="O9" s="60">
+      <c r="O9" s="58">
         <v>7</v>
       </c>
-      <c r="Q9" s="66">
+      <c r="Q9" s="63">
         <v>7</v>
       </c>
-      <c r="R9" s="69">
+      <c r="R9" s="66">
         <v>62.3</v>
       </c>
-      <c r="S9" s="71">
+      <c r="S9" s="68">
         <v>57.3</v>
       </c>
-      <c r="T9" s="72">
+      <c r="T9" s="69">
         <v>52.4</v>
       </c>
-      <c r="U9" s="70">
+      <c r="U9" s="67">
         <v>49.3</v>
       </c>
-      <c r="V9" s="70">
+      <c r="V9" s="67">
         <v>46.7</v>
       </c>
-      <c r="W9" s="70">
+      <c r="W9" s="67">
         <v>43.9</v>
       </c>
-      <c r="X9" s="70">
+      <c r="X9" s="67">
         <v>42.3</v>
       </c>
-      <c r="Y9" s="69">
+      <c r="Y9" s="66">
         <v>60.7</v>
       </c>
-      <c r="Z9" s="70">
+      <c r="Z9" s="67">
         <v>42.5</v>
       </c>
-      <c r="AA9" s="70">
+      <c r="AA9" s="67">
         <v>41.1</v>
       </c>
-      <c r="AB9" s="70">
+      <c r="AB9" s="67">
         <v>40</v>
       </c>
-      <c r="AC9" s="70">
+      <c r="AC9" s="67">
         <v>38.799999999999997</v>
       </c>
-      <c r="AD9" s="70">
+      <c r="AD9" s="67">
         <v>38</v>
       </c>
-      <c r="AE9" s="60">
+      <c r="AE9" s="58">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
+      <c r="A10" s="57">
         <v>6</v>
       </c>
       <c r="B10" s="29">
@@ -4265,57 +2823,57 @@
       <c r="N10" s="30">
         <v>0.37869999999999998</v>
       </c>
-      <c r="O10" s="60">
+      <c r="O10" s="58">
         <v>6</v>
       </c>
-      <c r="Q10" s="66">
+      <c r="Q10" s="63">
         <v>6</v>
       </c>
-      <c r="R10" s="69">
+      <c r="R10" s="66">
         <v>62</v>
       </c>
-      <c r="S10" s="71">
+      <c r="S10" s="68">
         <v>56.5</v>
       </c>
-      <c r="T10" s="72">
+      <c r="T10" s="69">
         <v>51.9</v>
       </c>
-      <c r="U10" s="70">
+      <c r="U10" s="67">
         <v>47.7</v>
       </c>
-      <c r="V10" s="70">
+      <c r="V10" s="67">
         <v>45</v>
       </c>
-      <c r="W10" s="70">
+      <c r="W10" s="67">
         <v>42.8</v>
       </c>
-      <c r="X10" s="70">
+      <c r="X10" s="67">
         <v>40.700000000000003</v>
       </c>
-      <c r="Y10" s="70">
+      <c r="Y10" s="67">
         <v>39.200000000000003</v>
       </c>
-      <c r="Z10" s="71">
+      <c r="Z10" s="68">
         <v>58.7</v>
       </c>
-      <c r="AA10" s="70">
+      <c r="AA10" s="67">
         <v>40</v>
       </c>
-      <c r="AB10" s="70">
+      <c r="AB10" s="67">
         <v>38.700000000000003</v>
       </c>
-      <c r="AC10" s="70">
+      <c r="AC10" s="67">
         <v>37.700000000000003</v>
       </c>
-      <c r="AD10" s="70">
+      <c r="AD10" s="67">
         <v>36.700000000000003</v>
       </c>
-      <c r="AE10" s="60">
+      <c r="AE10" s="58">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
+      <c r="A11" s="57">
         <v>5</v>
       </c>
       <c r="B11" s="29">
@@ -4357,57 +2915,57 @@
       <c r="N11" s="20">
         <v>0.37169999999999997</v>
       </c>
-      <c r="O11" s="60">
+      <c r="O11" s="58">
         <v>5</v>
       </c>
-      <c r="Q11" s="66">
+      <c r="Q11" s="63">
         <v>5</v>
       </c>
-      <c r="R11" s="69">
+      <c r="R11" s="66">
         <v>61.4</v>
       </c>
-      <c r="S11" s="71">
+      <c r="S11" s="68">
         <v>55.9</v>
       </c>
-      <c r="T11" s="72">
+      <c r="T11" s="69">
         <v>51.3</v>
       </c>
-      <c r="U11" s="70">
+      <c r="U11" s="67">
         <v>47.4</v>
       </c>
-      <c r="V11" s="70">
+      <c r="V11" s="67">
         <v>43.5</v>
       </c>
-      <c r="W11" s="70">
+      <c r="W11" s="67">
         <v>41.3</v>
       </c>
-      <c r="X11" s="70">
+      <c r="X11" s="67">
         <v>39.1</v>
       </c>
-      <c r="Y11" s="70">
+      <c r="Y11" s="67">
         <v>37.6</v>
       </c>
-      <c r="Z11" s="70">
+      <c r="Z11" s="67">
         <v>36.700000000000003</v>
       </c>
-      <c r="AA11" s="71">
+      <c r="AA11" s="68">
         <v>56.6</v>
       </c>
-      <c r="AB11" s="70">
+      <c r="AB11" s="67">
         <v>37.799999999999997</v>
       </c>
-      <c r="AC11" s="70">
+      <c r="AC11" s="67">
         <v>36.4</v>
       </c>
-      <c r="AD11" s="70">
+      <c r="AD11" s="67">
         <v>35.6</v>
       </c>
-      <c r="AE11" s="60">
+      <c r="AE11" s="58">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59">
+      <c r="A12" s="57">
         <v>4</v>
       </c>
       <c r="B12" s="29">
@@ -4449,57 +3007,57 @@
       <c r="N12" s="30">
         <v>0.38109999999999999</v>
       </c>
-      <c r="O12" s="60">
+      <c r="O12" s="58">
         <v>4</v>
       </c>
-      <c r="Q12" s="66">
+      <c r="Q12" s="63">
         <v>4</v>
       </c>
-      <c r="R12" s="69">
+      <c r="R12" s="66">
         <v>61</v>
       </c>
-      <c r="S12" s="71">
+      <c r="S12" s="68">
         <v>55.5</v>
       </c>
-      <c r="T12" s="72">
+      <c r="T12" s="69">
         <v>50.9</v>
       </c>
-      <c r="U12" s="70">
+      <c r="U12" s="67">
         <v>47</v>
       </c>
-      <c r="V12" s="70">
+      <c r="V12" s="67">
         <v>43.1</v>
       </c>
-      <c r="W12" s="70">
+      <c r="W12" s="67">
         <v>39.6</v>
       </c>
-      <c r="X12" s="70">
+      <c r="X12" s="67">
         <v>38</v>
       </c>
-      <c r="Y12" s="70">
+      <c r="Y12" s="67">
         <v>36.5</v>
       </c>
-      <c r="Z12" s="70">
+      <c r="Z12" s="67">
         <v>35.299999999999997</v>
       </c>
-      <c r="AA12" s="70">
+      <c r="AA12" s="67">
         <v>34</v>
       </c>
-      <c r="AB12" s="72">
+      <c r="AB12" s="69">
         <v>54.6</v>
       </c>
-      <c r="AC12" s="70">
+      <c r="AC12" s="67">
         <v>35.9</v>
       </c>
-      <c r="AD12" s="70">
+      <c r="AD12" s="67">
         <v>34.799999999999997</v>
       </c>
-      <c r="AE12" s="60">
+      <c r="AE12" s="58">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59">
+      <c r="A13" s="57">
         <v>3</v>
       </c>
       <c r="B13" s="29">
@@ -4541,57 +3099,57 @@
       <c r="N13" s="30">
         <v>0.36670000000000003</v>
       </c>
-      <c r="O13" s="60">
+      <c r="O13" s="58">
         <v>3</v>
       </c>
-      <c r="Q13" s="66">
+      <c r="Q13" s="63">
         <v>3</v>
       </c>
-      <c r="R13" s="69">
+      <c r="R13" s="66">
         <v>60.5</v>
       </c>
-      <c r="S13" s="71">
+      <c r="S13" s="68">
         <v>55.5</v>
       </c>
-      <c r="T13" s="72">
+      <c r="T13" s="69">
         <v>50.9</v>
       </c>
-      <c r="U13" s="70">
+      <c r="U13" s="67">
         <v>46.7</v>
       </c>
-      <c r="V13" s="70">
+      <c r="V13" s="67">
         <v>42.8</v>
       </c>
-      <c r="W13" s="70">
+      <c r="W13" s="67">
         <v>39.6</v>
       </c>
-      <c r="X13" s="70">
+      <c r="X13" s="67">
         <v>36.799999999999997</v>
       </c>
-      <c r="Y13" s="70">
+      <c r="Y13" s="67">
         <v>35.1</v>
       </c>
-      <c r="Z13" s="70">
+      <c r="Z13" s="67">
         <v>34</v>
       </c>
-      <c r="AA13" s="70">
+      <c r="AA13" s="67">
         <v>32.9</v>
       </c>
-      <c r="AB13" s="70">
+      <c r="AB13" s="67">
         <v>31.9</v>
       </c>
-      <c r="AC13" s="72">
+      <c r="AC13" s="69">
         <v>52.6</v>
       </c>
-      <c r="AD13" s="70">
+      <c r="AD13" s="67">
         <v>34.4</v>
       </c>
-      <c r="AE13" s="60">
+      <c r="AE13" s="58">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59">
+      <c r="A14" s="57">
         <v>2</v>
       </c>
       <c r="B14" s="29">
@@ -4633,197 +3191,197 @@
       <c r="N14" s="25">
         <v>0.5</v>
       </c>
-      <c r="O14" s="60">
+      <c r="O14" s="58">
         <v>2</v>
       </c>
-      <c r="Q14" s="66">
+      <c r="Q14" s="63">
         <v>2</v>
       </c>
-      <c r="R14" s="69">
+      <c r="R14" s="66">
         <v>60.7</v>
       </c>
-      <c r="S14" s="71">
+      <c r="S14" s="68">
         <v>55.4</v>
       </c>
-      <c r="T14" s="72">
+      <c r="T14" s="69">
         <v>50.7</v>
       </c>
-      <c r="U14" s="70">
+      <c r="U14" s="67">
         <v>46.7</v>
       </c>
-      <c r="V14" s="70">
+      <c r="V14" s="67">
         <v>42.6</v>
       </c>
-      <c r="W14" s="70">
+      <c r="W14" s="67">
         <v>39.4</v>
       </c>
-      <c r="X14" s="70">
+      <c r="X14" s="67">
         <v>36.6</v>
       </c>
-      <c r="Y14" s="70">
+      <c r="Y14" s="67">
         <v>34.5</v>
       </c>
-      <c r="Z14" s="70">
+      <c r="Z14" s="67">
         <v>33</v>
       </c>
-      <c r="AA14" s="70">
+      <c r="AA14" s="67">
         <v>31.8</v>
       </c>
-      <c r="AB14" s="70">
+      <c r="AB14" s="67">
         <v>30.9</v>
       </c>
-      <c r="AC14" s="70">
+      <c r="AC14" s="67">
         <v>30.5</v>
       </c>
-      <c r="AD14" s="72">
+      <c r="AD14" s="69">
         <v>50.8</v>
       </c>
-      <c r="AE14" s="60">
+      <c r="AE14" s="58">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:31" s="33" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
-      <c r="B15" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="63">
+      <c r="B15" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="61">
         <v>9</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="61">
         <v>8</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="61">
         <v>7</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J15" s="61">
         <v>6</v>
       </c>
-      <c r="K15" s="63">
+      <c r="K15" s="61">
         <v>5</v>
       </c>
-      <c r="L15" s="63">
+      <c r="L15" s="61">
         <v>4</v>
       </c>
-      <c r="M15" s="63">
+      <c r="M15" s="61">
         <v>3</v>
       </c>
-      <c r="N15" s="63">
+      <c r="N15" s="61">
         <v>2</v>
       </c>
       <c r="O15" s="32"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="S15" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="T15" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="U15" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="V15" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="W15" s="63">
+      <c r="Q15" s="59"/>
+      <c r="R15" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="U15" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="W15" s="61">
         <v>9</v>
       </c>
-      <c r="X15" s="63">
+      <c r="X15" s="61">
         <v>8</v>
       </c>
-      <c r="Y15" s="63">
+      <c r="Y15" s="61">
         <v>7</v>
       </c>
-      <c r="Z15" s="63">
+      <c r="Z15" s="61">
         <v>6</v>
       </c>
-      <c r="AA15" s="63">
+      <c r="AA15" s="61">
         <v>5</v>
       </c>
-      <c r="AB15" s="63">
+      <c r="AB15" s="61">
         <v>4</v>
       </c>
-      <c r="AC15" s="63">
+      <c r="AC15" s="61">
         <v>3</v>
       </c>
-      <c r="AD15" s="63">
+      <c r="AD15" s="61">
         <v>2</v>
       </c>
-      <c r="AE15" s="64"/>
+      <c r="AE15" s="62"/>
     </row>
     <row r="16" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="26">
         <v>0.7</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="I16" s="27"/>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="S16" s="26">
         <v>0.7</v>
       </c>
       <c r="T16" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="V16" s="28"/>
       <c r="W16" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y16" s="71"/>
+        <v>34</v>
+      </c>
+      <c r="Y16" s="68"/>
       <c r="Z16" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB16" s="72"/>
+        <v>33</v>
+      </c>
+      <c r="AB16" s="69"/>
       <c r="AC16" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="D18" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="U18" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
+      <c r="D18" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="U18" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4838,643 +3396,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="A1:N14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" style="11" customWidth="1"/>
-    <col min="2" max="14" width="5.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="54" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="54">
-        <v>9</v>
-      </c>
-      <c r="H1" s="54">
-        <v>8</v>
-      </c>
-      <c r="I1" s="54">
-        <v>7</v>
-      </c>
-      <c r="J1" s="54">
-        <v>6</v>
-      </c>
-      <c r="K1" s="54">
-        <v>5</v>
-      </c>
-      <c r="L1" s="54">
-        <v>4</v>
-      </c>
-      <c r="M1" s="54">
-        <v>3</v>
-      </c>
-      <c r="N1" s="54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2">
-        <v>85.9</v>
-      </c>
-      <c r="C2">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="D2">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="E2">
-        <v>67.5</v>
-      </c>
-      <c r="F2">
-        <v>67.2</v>
-      </c>
-      <c r="G2">
-        <v>65.8</v>
-      </c>
-      <c r="H2">
-        <v>65</v>
-      </c>
-      <c r="I2">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="J2">
-        <v>63.9</v>
-      </c>
-      <c r="K2">
-        <v>63.4</v>
-      </c>
-      <c r="L2">
-        <v>63.3</v>
-      </c>
-      <c r="M2">
-        <v>63.2</v>
-      </c>
-      <c r="N2">
-        <v>62.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="C3">
-        <v>80.8</v>
-      </c>
-      <c r="D3">
-        <v>63.7</v>
-      </c>
-      <c r="E3">
-        <v>63.3</v>
-      </c>
-      <c r="F3">
-        <v>63</v>
-      </c>
-      <c r="G3">
-        <v>61.7</v>
-      </c>
-      <c r="H3">
-        <v>59.8</v>
-      </c>
-      <c r="I3">
-        <v>59.9</v>
-      </c>
-      <c r="J3">
-        <v>59.1</v>
-      </c>
-      <c r="K3">
-        <v>58.1</v>
-      </c>
-      <c r="L3">
-        <v>57.8</v>
-      </c>
-      <c r="M3">
-        <v>57.8</v>
-      </c>
-      <c r="N3">
-        <v>58.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="C4">
-        <v>61.9</v>
-      </c>
-      <c r="D4">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="E4">
-        <v>59.6</v>
-      </c>
-      <c r="F4">
-        <v>59.4</v>
-      </c>
-      <c r="G4">
-        <v>57.6</v>
-      </c>
-      <c r="H4">
-        <v>56</v>
-      </c>
-      <c r="I4">
-        <v>55.1</v>
-      </c>
-      <c r="J4">
-        <v>54.2</v>
-      </c>
-      <c r="K4">
-        <v>54.2</v>
-      </c>
-      <c r="L4">
-        <v>53.9</v>
-      </c>
-      <c r="M4">
-        <v>53.3</v>
-      </c>
-      <c r="N4">
-        <v>53.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="C5">
-        <v>61.1</v>
-      </c>
-      <c r="D5">
-        <v>57.6</v>
-      </c>
-      <c r="E5">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F5">
-        <v>56.4</v>
-      </c>
-      <c r="G5">
-        <v>54.7</v>
-      </c>
-      <c r="H5">
-        <v>53.5</v>
-      </c>
-      <c r="I5">
-        <v>51.9</v>
-      </c>
-      <c r="J5">
-        <v>50.2</v>
-      </c>
-      <c r="K5">
-        <v>50.1</v>
-      </c>
-      <c r="L5">
-        <v>49.8</v>
-      </c>
-      <c r="M5">
-        <v>49.3</v>
-      </c>
-      <c r="N5">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6">
-        <v>65.3</v>
-      </c>
-      <c r="C6">
-        <v>61.2</v>
-      </c>
-      <c r="D6">
-        <v>57.3</v>
-      </c>
-      <c r="E6">
-        <v>54</v>
-      </c>
-      <c r="F6">
-        <v>69</v>
-      </c>
-      <c r="G6">
-        <v>51.9</v>
-      </c>
-      <c r="H6">
-        <v>51.2</v>
-      </c>
-      <c r="I6">
-        <v>49.6</v>
-      </c>
-      <c r="J6">
-        <v>47.9</v>
-      </c>
-      <c r="K6">
-        <v>46.5</v>
-      </c>
-      <c r="L6">
-        <v>46.3</v>
-      </c>
-      <c r="M6">
-        <v>46.1</v>
-      </c>
-      <c r="N6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>62.9</v>
-      </c>
-      <c r="C7">
-        <v>59.4</v>
-      </c>
-      <c r="D7">
-        <v>55.5</v>
-      </c>
-      <c r="E7">
-        <v>52.2</v>
-      </c>
-      <c r="F7">
-        <v>49.7</v>
-      </c>
-      <c r="G7">
-        <v>65.7</v>
-      </c>
-      <c r="H7">
-        <v>48.5</v>
-      </c>
-      <c r="I7">
-        <v>47.1</v>
-      </c>
-      <c r="J7">
-        <v>45.7</v>
-      </c>
-      <c r="K7">
-        <v>44.3</v>
-      </c>
-      <c r="L7">
-        <v>42.4</v>
-      </c>
-      <c r="M7">
-        <v>42.9</v>
-      </c>
-      <c r="N7">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>63.3</v>
-      </c>
-      <c r="C8">
-        <v>57.8</v>
-      </c>
-      <c r="D8">
-        <v>54</v>
-      </c>
-      <c r="E8">
-        <v>50.7</v>
-      </c>
-      <c r="F8">
-        <v>48.1</v>
-      </c>
-      <c r="G8">
-        <v>45.8</v>
-      </c>
-      <c r="H8">
-        <v>63.2</v>
-      </c>
-      <c r="I8">
-        <v>45.3</v>
-      </c>
-      <c r="J8">
-        <v>43.8</v>
-      </c>
-      <c r="K8">
-        <v>42.4</v>
-      </c>
-      <c r="L8">
-        <v>41.1</v>
-      </c>
-      <c r="M8">
-        <v>40.1</v>
-      </c>
-      <c r="N8">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>62.5</v>
-      </c>
-      <c r="C9">
-        <v>57.4</v>
-      </c>
-      <c r="D9">
-        <v>52.6</v>
-      </c>
-      <c r="E9">
-        <v>49.1</v>
-      </c>
-      <c r="F9">
-        <v>46.6</v>
-      </c>
-      <c r="G9">
-        <v>44.3</v>
-      </c>
-      <c r="H9">
-        <v>42.4</v>
-      </c>
-      <c r="I9">
-        <v>60.6</v>
-      </c>
-      <c r="J9">
-        <v>42.9</v>
-      </c>
-      <c r="K9">
-        <v>41</v>
-      </c>
-      <c r="L9">
-        <v>39.9</v>
-      </c>
-      <c r="M9">
-        <v>38.4</v>
-      </c>
-      <c r="N9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>61.7</v>
-      </c>
-      <c r="C10">
-        <v>56.8</v>
-      </c>
-      <c r="D10">
-        <v>52.1</v>
-      </c>
-      <c r="E10">
-        <v>47.7</v>
-      </c>
-      <c r="F10">
-        <v>44.9</v>
-      </c>
-      <c r="G10">
-        <v>42.9</v>
-      </c>
-      <c r="H10">
-        <v>41.1</v>
-      </c>
-      <c r="I10">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="J10">
-        <v>58.7</v>
-      </c>
-      <c r="K10">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="L10">
-        <v>38.9</v>
-      </c>
-      <c r="M10">
-        <v>37.6</v>
-      </c>
-      <c r="N10">
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>61.2</v>
-      </c>
-      <c r="C11">
-        <v>56.2</v>
-      </c>
-      <c r="D11">
-        <v>51.1</v>
-      </c>
-      <c r="E11">
-        <v>47.5</v>
-      </c>
-      <c r="F11">
-        <v>43.5</v>
-      </c>
-      <c r="G11">
-        <v>41.5</v>
-      </c>
-      <c r="H11">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="I11">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="J11">
-        <v>36.6</v>
-      </c>
-      <c r="K11">
-        <v>56.5</v>
-      </c>
-      <c r="L11">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="M11">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="N11">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>61.2</v>
-      </c>
-      <c r="C12">
-        <v>55.8</v>
-      </c>
-      <c r="D12">
-        <v>50.9</v>
-      </c>
-      <c r="E12">
-        <v>46.9</v>
-      </c>
-      <c r="F12">
-        <v>43.1</v>
-      </c>
-      <c r="G12">
-        <v>39.9</v>
-      </c>
-      <c r="H12">
-        <v>37.9</v>
-      </c>
-      <c r="I12">
-        <v>36.5</v>
-      </c>
-      <c r="J12">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="K12">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="L12">
-        <v>54.2</v>
-      </c>
-      <c r="M12">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="N12">
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>60.8</v>
-      </c>
-      <c r="C13">
-        <v>55.7</v>
-      </c>
-      <c r="D13">
-        <v>51.1</v>
-      </c>
-      <c r="E13">
-        <v>47</v>
-      </c>
-      <c r="F13">
-        <v>43</v>
-      </c>
-      <c r="G13">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="H13">
-        <v>36.5</v>
-      </c>
-      <c r="I13">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="J13">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="K13">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="L13">
-        <v>32.4</v>
-      </c>
-      <c r="M13">
-        <v>52.9</v>
-      </c>
-      <c r="N13">
-        <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>60.6</v>
-      </c>
-      <c r="C14">
-        <v>55.3</v>
-      </c>
-      <c r="D14">
-        <v>50.5</v>
-      </c>
-      <c r="E14">
-        <v>46.8</v>
-      </c>
-      <c r="F14">
-        <v>42.8</v>
-      </c>
-      <c r="G14">
-        <v>39.5</v>
-      </c>
-      <c r="H14">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="I14">
-        <v>34.1</v>
-      </c>
-      <c r="J14">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="K14">
-        <v>31.8</v>
-      </c>
-      <c r="L14">
-        <v>31.4</v>
-      </c>
-      <c r="M14">
-        <v>30.6</v>
-      </c>
-      <c r="N14">
-        <v>51.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H11"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5496,25 +3421,25 @@
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
-      <c r="H1" s="51" t="s">
-        <v>156</v>
+      <c r="H1" s="71" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>4</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>2</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="52">
         <v>1</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
-      <c r="H2" s="51"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="42">
@@ -5532,7 +3457,7 @@
       <c r="E3" s="44"/>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
-      <c r="H3" s="51"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="42">
@@ -5548,7 +3473,7 @@
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
-      <c r="H4" s="51"/>
+      <c r="H4" s="71"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="42">
@@ -5564,7 +3489,7 @@
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
-      <c r="H5" s="51"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="42">
@@ -5582,7 +3507,7 @@
       <c r="E6" s="44"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
-      <c r="H6" s="51"/>
+      <c r="H6" s="71"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="48">
@@ -5602,7 +3527,7 @@
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
-      <c r="H7" s="51"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="42">
@@ -5620,7 +3545,7 @@
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
-      <c r="H8" s="51"/>
+      <c r="H8" s="71"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="48">
@@ -5640,7 +3565,7 @@
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
-      <c r="H9" s="51"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="48">
@@ -5662,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="44"/>
-      <c r="H10" s="51"/>
+      <c r="H10" s="71"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="46">
@@ -5686,7 +3611,7 @@
       <c r="G11" s="47">
         <v>1</v>
       </c>
-      <c r="H11" s="51"/>
+      <c r="H11" s="71"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="44"/>
@@ -5761,8 +3686,8 @@
       <c r="E19" s="44"/>
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
-      <c r="H19" s="51" t="s">
-        <v>155</v>
+      <c r="H19" s="71" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -5777,7 +3702,7 @@
       <c r="E20" s="44"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
-      <c r="H20" s="51"/>
+      <c r="H20" s="71"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="45">
@@ -5791,7 +3716,7 @@
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
       <c r="G21" s="44"/>
-      <c r="H21" s="51"/>
+      <c r="H21" s="71"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="45">
@@ -5807,7 +3732,7 @@
       <c r="E22" s="44"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
-      <c r="H22" s="51"/>
+      <c r="H22" s="71"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="44">
@@ -5821,7 +3746,7 @@
       <c r="E23" s="44"/>
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
-      <c r="H23" s="51"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="44">
@@ -5837,7 +3762,7 @@
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
-      <c r="H24" s="51"/>
+      <c r="H24" s="71"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="44">
@@ -5855,7 +3780,7 @@
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
-      <c r="H25" s="51"/>
+      <c r="H25" s="71"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="44">
@@ -5871,7 +3796,7 @@
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
-      <c r="H26" s="51"/>
+      <c r="H26" s="71"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="44">
@@ -5887,7 +3812,7 @@
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
-      <c r="H27" s="51"/>
+      <c r="H27" s="71"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="44">
@@ -5905,7 +3830,7 @@
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
-      <c r="H28" s="51"/>
+      <c r="H28" s="71"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="44">
@@ -5923,7 +3848,7 @@
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
-      <c r="H29" s="51"/>
+      <c r="H29" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5936,7 +3861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>

--- a/data/poker.xlsx
+++ b/data/poker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9675" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="42">
   <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -159,6 +159,26 @@
     <t>20180219-p2-30w-3.24 hours</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>face</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>face_cnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +304,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
@@ -302,6 +330,14 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -456,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,10 +689,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -671,17 +710,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1774,6 +1819,21 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>38</v>
+      </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
         <v>7</v>
@@ -1789,6 +1849,21 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1" t="s">
         <v>7</v>
@@ -1804,27 +1879,106 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
       <c r="S21" s="1"/>
       <c r="T21" s="2"/>
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="2"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
       <c r="S23" s="1"/>
       <c r="T23" s="2"/>
       <c r="U23" s="1"/>
       <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
       <c r="S24" s="1"/>
       <c r="T24" s="2"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
@@ -3311,7 +3465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -3865,50 +4019,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="72" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="73" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.625" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.5" style="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5" style="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="73" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" style="74" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="73" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.625" style="73" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66">
+      <c r="A1" s="67">
         <v>249900</v>
       </c>
-      <c r="B1" s="66">
+      <c r="B1" s="67">
         <v>0</v>
       </c>
-      <c r="C1" s="66">
+      <c r="C1" s="67">
         <v>0</v>
       </c>
-      <c r="D1" s="66">
+      <c r="D1" s="67">
         <v>0</v>
       </c>
-      <c r="E1" s="66">
+      <c r="E1" s="67">
         <v>0</v>
       </c>
-      <c r="F1" s="74">
-        <v>1</v>
-      </c>
-      <c r="G1" s="67">
+      <c r="F1" s="75">
+        <v>1</v>
+      </c>
+      <c r="G1" s="68">
         <v>249900</v>
       </c>
-      <c r="H1" s="67">
+      <c r="H1" s="68">
         <v>0</v>
       </c>
-      <c r="I1" s="67">
+      <c r="I1" s="68">
         <v>0</v>
       </c>
-      <c r="J1" s="67">
+      <c r="J1" s="68">
         <v>0</v>
       </c>
-      <c r="K1" s="67">
+      <c r="K1" s="68">
         <v>0</v>
       </c>
       <c r="L1" s="34"/>
@@ -3916,37 +4070,37 @@
       <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66">
+      <c r="A2" s="67">
         <v>230300</v>
       </c>
-      <c r="B2" s="68">
+      <c r="B2" s="69">
         <v>19600</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="67">
         <v>0</v>
       </c>
-      <c r="D2" s="66">
+      <c r="D2" s="67">
         <v>0</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="67">
         <v>0</v>
       </c>
-      <c r="F2" s="74">
+      <c r="F2" s="75">
         <v>2</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="68">
         <v>230300</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="68">
         <v>19600</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="68">
         <v>0</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="68">
         <v>0</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="68">
         <v>0</v>
       </c>
       <c r="L2" s="34"/>
@@ -3954,37 +4108,37 @@
       <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66">
+      <c r="A3" s="67">
         <v>211876</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="67">
         <v>36848</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="67">
         <v>1176</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="67">
         <v>0</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="67">
         <v>0</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="75">
         <v>3</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="68">
         <v>211876</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="68">
         <v>18424</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="68">
         <v>1176</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="68">
         <v>0</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="68">
         <v>0</v>
       </c>
       <c r="L3" s="34"/>
@@ -3992,37 +4146,37 @@
       <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66">
+      <c r="A4" s="67">
         <v>194580</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="67">
         <v>51888</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="67">
         <v>3384</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="67">
         <v>48</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="67">
         <v>0</v>
       </c>
-      <c r="F4" s="74">
+      <c r="F4" s="75">
         <v>4</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="68">
         <v>194580</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="68">
         <v>17296</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="68">
         <v>1128</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="68">
         <v>48</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="68">
         <v>0</v>
       </c>
       <c r="L4" s="34"/>
@@ -4030,37 +4184,37 @@
       <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66">
+      <c r="A5" s="67">
         <v>178365</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="67">
         <v>64860</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="67">
         <v>6486</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="67">
         <v>188</v>
       </c>
-      <c r="E5" s="66">
-        <v>1</v>
-      </c>
-      <c r="F5" s="74">
+      <c r="E5" s="67">
+        <v>1</v>
+      </c>
+      <c r="F5" s="75">
         <v>5</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="68">
         <v>178365</v>
       </c>
-      <c r="H5" s="67">
+      <c r="H5" s="68">
         <v>16215</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="68">
         <v>1081</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="68">
         <v>47</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="68">
         <v>1</v>
       </c>
       <c r="L5" s="34"/>
@@ -4068,37 +4222,37 @@
       <c r="N5" s="34"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66">
+      <c r="A6" s="67">
         <v>163185</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="67">
         <v>75900</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="67">
         <v>10350</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="67">
         <v>460</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="67">
         <v>5</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="75">
         <v>6</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="68">
         <v>163185</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="68">
         <v>15180</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="68">
         <v>1035</v>
       </c>
-      <c r="J6" s="67">
+      <c r="J6" s="68">
         <v>46</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="68">
         <v>1</v>
       </c>
       <c r="L6" s="34"/>
@@ -4106,37 +4260,37 @@
       <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66">
+      <c r="A7" s="67">
         <v>148995</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="67">
         <v>85140</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="67">
         <v>14850</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="67">
         <v>900</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="67">
         <v>15</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="75">
         <v>7</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="68">
         <v>148995</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="68">
         <v>14190</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="68">
         <v>990</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="68">
         <v>45</v>
       </c>
-      <c r="K7" s="67">
+      <c r="K7" s="68">
         <v>1</v>
       </c>
       <c r="L7" s="34"/>
@@ -4144,1641 +4298,1641 @@
       <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66">
+      <c r="A8" s="67">
         <v>135751</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="67">
         <v>92708</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="67">
         <v>19866</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="67">
         <v>1540</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="67">
         <v>35</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="75">
         <v>8</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="68">
         <v>135751</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="68">
         <v>13244</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="68">
         <v>946</v>
       </c>
-      <c r="J8" s="67">
+      <c r="J8" s="68">
         <v>44</v>
       </c>
-      <c r="K8" s="67">
+      <c r="K8" s="68">
         <v>1</v>
       </c>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66">
+      <c r="A9" s="67">
         <v>123410</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="67">
         <v>98728</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="67">
         <v>25284</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="67">
         <v>2408</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="67">
         <v>70</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="75">
         <v>9</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="68">
         <v>123410</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="68">
         <v>12341</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="68">
         <v>903</v>
       </c>
-      <c r="J9" s="67">
+      <c r="J9" s="68">
         <v>43</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="68">
         <v>1</v>
       </c>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66">
+      <c r="A10" s="67">
         <v>111930</v>
       </c>
-      <c r="B10" s="66">
+      <c r="B10" s="67">
         <v>103320</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="67">
         <v>30996</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="67">
         <v>3528</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="67">
         <v>126</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="75">
         <v>10</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="68">
         <v>111930</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="68">
         <v>11480</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="68">
         <v>861</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="68">
         <v>42</v>
       </c>
-      <c r="K10" s="67">
+      <c r="K10" s="68">
         <v>1</v>
       </c>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:14" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66">
+      <c r="A11" s="67">
         <v>101270</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B11" s="67">
         <v>106600</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="67">
         <v>36900</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="67">
         <v>4920</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="67">
         <v>210</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="75">
         <v>11</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="68">
         <v>101270</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="68">
         <v>10660</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="68">
         <v>820</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="68">
         <v>41</v>
       </c>
-      <c r="K11" s="67">
+      <c r="K11" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66">
+      <c r="A12" s="67">
         <v>91390</v>
       </c>
-      <c r="B12" s="66">
+      <c r="B12" s="67">
         <v>108680</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="67">
         <v>42900</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="67">
         <v>6600</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="67">
         <v>330</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="75">
         <v>12</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="68">
         <v>91390</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="68">
         <v>9880</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="68">
         <v>780</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="68">
         <v>40</v>
       </c>
-      <c r="K12" s="67">
+      <c r="K12" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66">
+      <c r="A13" s="67">
         <v>82251</v>
       </c>
-      <c r="B13" s="69">
+      <c r="B13" s="70">
         <v>109668</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="67">
         <v>48906</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="67">
         <v>8580</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="67">
         <v>495</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="75">
         <v>13</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="68">
         <v>82251</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="68">
         <v>9139</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="68">
         <v>741</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="68">
         <v>39</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66">
+      <c r="A14" s="67">
         <v>73815</v>
       </c>
-      <c r="B14" s="69">
+      <c r="B14" s="70">
         <v>109668</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="67">
         <v>54834</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="67">
         <v>10868</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="67">
         <v>715</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="75">
         <v>14</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="68">
         <v>73815</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="68">
         <v>8436</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="68">
         <v>703</v>
       </c>
-      <c r="J14" s="67">
+      <c r="J14" s="68">
         <v>38</v>
       </c>
-      <c r="K14" s="67">
+      <c r="K14" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66">
+      <c r="A15" s="67">
         <v>66045</v>
       </c>
-      <c r="B15" s="66">
+      <c r="B15" s="67">
         <v>108780</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="67">
         <v>60606</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="67">
         <v>13468</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="67">
         <v>1001</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="75">
         <v>15</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="68">
         <v>66045</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="68">
         <v>7770</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="68">
         <v>666</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="68">
         <v>37</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K15" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66">
+      <c r="A16" s="67">
         <v>58905</v>
       </c>
-      <c r="B16" s="66">
+      <c r="B16" s="67">
         <v>107100</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="67">
         <v>66150</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="67">
         <v>16380</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="67">
         <v>1365</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F16" s="75">
         <v>16</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="68">
         <v>58905</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="68">
         <v>7140</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="68">
         <v>630</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="68">
         <v>36</v>
       </c>
-      <c r="K16" s="67">
+      <c r="K16" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66">
+      <c r="A17" s="67">
         <v>52360</v>
       </c>
-      <c r="B17" s="66">
+      <c r="B17" s="67">
         <v>104720</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="67">
         <v>71400</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="69">
         <v>19600</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="67">
         <v>1820</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="75">
         <v>17</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="68">
         <v>52360</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="68">
         <v>6545</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="68">
         <v>595</v>
       </c>
-      <c r="J17" s="67">
+      <c r="J17" s="68">
         <v>35</v>
       </c>
-      <c r="K17" s="67">
+      <c r="K17" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66">
+      <c r="A18" s="67">
         <v>46376</v>
       </c>
-      <c r="B18" s="66">
+      <c r="B18" s="67">
         <v>101728</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="67">
         <v>76296</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="67">
         <v>23120</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="67">
         <v>2380</v>
       </c>
-      <c r="F18" s="74">
+      <c r="F18" s="75">
         <v>18</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="68">
         <v>46376</v>
       </c>
-      <c r="H18" s="67">
+      <c r="H18" s="68">
         <v>5984</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="68">
         <v>561</v>
       </c>
-      <c r="J18" s="67">
+      <c r="J18" s="68">
         <v>34</v>
       </c>
-      <c r="K18" s="67">
+      <c r="K18" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66">
+      <c r="A19" s="67">
         <v>40920</v>
       </c>
-      <c r="B19" s="66">
+      <c r="B19" s="67">
         <v>98208</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="67">
         <v>80784</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="67">
         <v>26928</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="67">
         <v>3060</v>
       </c>
-      <c r="F19" s="74">
+      <c r="F19" s="75">
         <v>19</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="68">
         <v>40920</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="68">
         <v>5456</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="68">
         <v>528</v>
       </c>
-      <c r="J19" s="67">
+      <c r="J19" s="68">
         <v>33</v>
       </c>
-      <c r="K19" s="67">
+      <c r="K19" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66">
+      <c r="A20" s="67">
         <v>35960</v>
       </c>
-      <c r="B20" s="66">
+      <c r="B20" s="67">
         <v>94240</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="67">
         <v>84816</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="67">
         <v>31008</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="67">
         <v>3876</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="75">
         <v>20</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="68">
         <v>35960</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="68">
         <v>4960</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="68">
         <v>496</v>
       </c>
-      <c r="J20" s="67">
+      <c r="J20" s="68">
         <v>32</v>
       </c>
-      <c r="K20" s="67">
+      <c r="K20" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66">
+      <c r="A21" s="67">
         <v>31465</v>
       </c>
-      <c r="B21" s="66">
+      <c r="B21" s="67">
         <v>89900</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="67">
         <v>88350</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="67">
         <v>35340</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="67">
         <v>4845</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="75">
         <v>21</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="68">
         <v>31465</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="68">
         <v>4495</v>
       </c>
-      <c r="I21" s="67">
+      <c r="I21" s="68">
         <v>465</v>
       </c>
-      <c r="J21" s="67">
+      <c r="J21" s="68">
         <v>31</v>
       </c>
-      <c r="K21" s="67">
+      <c r="K21" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66">
+      <c r="A22" s="67">
         <v>27405</v>
       </c>
-      <c r="B22" s="66">
+      <c r="B22" s="67">
         <v>85260</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="67">
         <v>91350</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="67">
         <v>39900</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="67">
         <v>5985</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="75">
         <v>22</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="68">
         <v>27405</v>
       </c>
-      <c r="H22" s="67">
+      <c r="H22" s="68">
         <v>4060</v>
       </c>
-      <c r="I22" s="67">
+      <c r="I22" s="68">
         <v>435</v>
       </c>
-      <c r="J22" s="67">
+      <c r="J22" s="68">
         <v>30</v>
       </c>
-      <c r="K22" s="67">
+      <c r="K22" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66">
+      <c r="A23" s="67">
         <v>23751</v>
       </c>
-      <c r="B23" s="66">
+      <c r="B23" s="67">
         <v>80388</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="67">
         <v>93786</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="67">
         <v>44660</v>
       </c>
-      <c r="E23" s="66">
+      <c r="E23" s="67">
         <v>7315</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F23" s="75">
         <v>23</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="68">
         <v>23751</v>
       </c>
-      <c r="H23" s="67">
+      <c r="H23" s="68">
         <v>3654</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="68">
         <v>406</v>
       </c>
-      <c r="J23" s="67">
+      <c r="J23" s="68">
         <v>29</v>
       </c>
-      <c r="K23" s="67">
+      <c r="K23" s="68">
         <v>1</v>
       </c>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66">
+      <c r="A24" s="67">
         <v>20475</v>
       </c>
-      <c r="B24" s="66">
+      <c r="B24" s="67">
         <v>75348</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="67">
         <v>95634</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="67">
         <v>49588</v>
       </c>
-      <c r="E24" s="66">
+      <c r="E24" s="67">
         <v>8855</v>
       </c>
-      <c r="F24" s="74">
+      <c r="F24" s="75">
         <v>24</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="68">
         <v>20475</v>
       </c>
-      <c r="H24" s="67">
+      <c r="H24" s="68">
         <v>3276</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="68">
         <v>378</v>
       </c>
-      <c r="J24" s="67">
+      <c r="J24" s="68">
         <v>28</v>
       </c>
-      <c r="K24" s="67">
+      <c r="K24" s="68">
         <v>1</v>
       </c>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="66">
+      <c r="A25" s="67">
         <v>17550</v>
       </c>
-      <c r="B25" s="66">
+      <c r="B25" s="67">
         <v>70200</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="67">
         <v>96876</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D25" s="67">
         <v>54648</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="67">
         <v>10626</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F25" s="75">
         <v>25</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="68">
         <v>17550</v>
       </c>
-      <c r="H25" s="67">
+      <c r="H25" s="68">
         <v>2925</v>
       </c>
-      <c r="I25" s="67">
+      <c r="I25" s="68">
         <v>351</v>
       </c>
-      <c r="J25" s="67">
+      <c r="J25" s="68">
         <v>27</v>
       </c>
-      <c r="K25" s="67">
+      <c r="K25" s="68">
         <v>1</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="66">
+      <c r="A26" s="67">
         <v>14950</v>
       </c>
-      <c r="B26" s="66">
+      <c r="B26" s="67">
         <v>65000</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="67">
         <v>97500</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="67">
         <v>59800</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="67">
         <v>12650</v>
       </c>
-      <c r="F26" s="74">
+      <c r="F26" s="75">
         <v>26</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="68">
         <v>14950</v>
       </c>
-      <c r="H26" s="67">
+      <c r="H26" s="68">
         <v>2600</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="68">
         <v>325</v>
       </c>
-      <c r="J26" s="67">
+      <c r="J26" s="68">
         <v>26</v>
       </c>
-      <c r="K26" s="67">
+      <c r="K26" s="68">
         <v>1</v>
       </c>
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70">
+      <c r="A27" s="71">
         <v>12650</v>
       </c>
-      <c r="B27" s="70">
+      <c r="B27" s="71">
         <v>59800</v>
       </c>
-      <c r="C27" s="70">
+      <c r="C27" s="71">
         <v>97500</v>
       </c>
-      <c r="D27" s="70">
+      <c r="D27" s="71">
         <v>65000</v>
       </c>
-      <c r="E27" s="70">
+      <c r="E27" s="71">
         <v>14950</v>
       </c>
-      <c r="F27" s="74">
+      <c r="F27" s="75">
         <v>27</v>
       </c>
-      <c r="G27" s="67">
+      <c r="G27" s="68">
         <v>12650</v>
       </c>
-      <c r="H27" s="67">
+      <c r="H27" s="68">
         <v>2300</v>
       </c>
-      <c r="I27" s="67">
+      <c r="I27" s="68">
         <v>300</v>
       </c>
-      <c r="J27" s="67">
+      <c r="J27" s="68">
         <v>25</v>
       </c>
-      <c r="K27" s="67">
+      <c r="K27" s="68">
         <v>1</v>
       </c>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="70">
+      <c r="A28" s="71">
         <v>10626</v>
       </c>
-      <c r="B28" s="70">
+      <c r="B28" s="71">
         <v>54648</v>
       </c>
-      <c r="C28" s="70">
+      <c r="C28" s="71">
         <v>96876</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="71">
         <v>70200</v>
       </c>
-      <c r="E28" s="70">
+      <c r="E28" s="71">
         <v>17550</v>
       </c>
-      <c r="F28" s="74">
+      <c r="F28" s="75">
         <v>28</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="68">
         <v>10626</v>
       </c>
-      <c r="H28" s="67">
+      <c r="H28" s="68">
         <v>2024</v>
       </c>
-      <c r="I28" s="67">
+      <c r="I28" s="68">
         <v>276</v>
       </c>
-      <c r="J28" s="67">
+      <c r="J28" s="68">
         <v>24</v>
       </c>
-      <c r="K28" s="67">
+      <c r="K28" s="68">
         <v>1</v>
       </c>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70">
+      <c r="A29" s="71">
         <v>8855</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="71">
         <v>49588</v>
       </c>
-      <c r="C29" s="70">
+      <c r="C29" s="71">
         <v>95634</v>
       </c>
-      <c r="D29" s="70">
+      <c r="D29" s="71">
         <v>75348</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="71">
         <v>20475</v>
       </c>
-      <c r="F29" s="74">
+      <c r="F29" s="75">
         <v>29</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="68">
         <v>8855</v>
       </c>
-      <c r="H29" s="67">
+      <c r="H29" s="68">
         <v>1771</v>
       </c>
-      <c r="I29" s="67">
+      <c r="I29" s="68">
         <v>253</v>
       </c>
-      <c r="J29" s="67">
+      <c r="J29" s="68">
         <v>23</v>
       </c>
-      <c r="K29" s="67">
+      <c r="K29" s="68">
         <v>1</v>
       </c>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70">
+      <c r="A30" s="71">
         <v>7315</v>
       </c>
-      <c r="B30" s="70">
+      <c r="B30" s="71">
         <v>44660</v>
       </c>
-      <c r="C30" s="70">
+      <c r="C30" s="71">
         <v>93786</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="71">
         <v>80388</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="71">
         <v>23751</v>
       </c>
-      <c r="F30" s="74">
+      <c r="F30" s="75">
         <v>30</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="68">
         <v>7315</v>
       </c>
-      <c r="H30" s="67">
+      <c r="H30" s="68">
         <v>1540</v>
       </c>
-      <c r="I30" s="67">
+      <c r="I30" s="68">
         <v>231</v>
       </c>
-      <c r="J30" s="67">
+      <c r="J30" s="68">
         <v>22</v>
       </c>
-      <c r="K30" s="67">
+      <c r="K30" s="68">
         <v>1</v>
       </c>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
+      <c r="A31" s="71">
         <v>5985</v>
       </c>
-      <c r="B31" s="70">
+      <c r="B31" s="71">
         <v>39900</v>
       </c>
-      <c r="C31" s="70">
+      <c r="C31" s="71">
         <v>91350</v>
       </c>
-      <c r="D31" s="70">
+      <c r="D31" s="71">
         <v>85260</v>
       </c>
-      <c r="E31" s="70">
+      <c r="E31" s="71">
         <v>27405</v>
       </c>
-      <c r="F31" s="74">
+      <c r="F31" s="75">
         <v>31</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="68">
         <v>5985</v>
       </c>
-      <c r="H31" s="67">
+      <c r="H31" s="68">
         <v>1330</v>
       </c>
-      <c r="I31" s="67">
+      <c r="I31" s="68">
         <v>210</v>
       </c>
-      <c r="J31" s="67">
+      <c r="J31" s="68">
         <v>21</v>
       </c>
-      <c r="K31" s="67">
+      <c r="K31" s="68">
         <v>1</v>
       </c>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
     </row>
     <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="70">
+      <c r="A32" s="71">
         <v>4845</v>
       </c>
-      <c r="B32" s="70">
+      <c r="B32" s="71">
         <v>35340</v>
       </c>
-      <c r="C32" s="70">
+      <c r="C32" s="71">
         <v>88350</v>
       </c>
-      <c r="D32" s="70">
+      <c r="D32" s="71">
         <v>89900</v>
       </c>
-      <c r="E32" s="70">
+      <c r="E32" s="71">
         <v>31465</v>
       </c>
-      <c r="F32" s="74">
+      <c r="F32" s="75">
         <v>32</v>
       </c>
-      <c r="G32" s="67">
+      <c r="G32" s="68">
         <v>4845</v>
       </c>
-      <c r="H32" s="67">
+      <c r="H32" s="68">
         <v>1140</v>
       </c>
-      <c r="I32" s="67">
+      <c r="I32" s="68">
         <v>190</v>
       </c>
-      <c r="J32" s="67">
+      <c r="J32" s="68">
         <v>20</v>
       </c>
-      <c r="K32" s="67">
+      <c r="K32" s="68">
         <v>1</v>
       </c>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
     </row>
     <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70">
+      <c r="A33" s="71">
         <v>3876</v>
       </c>
-      <c r="B33" s="70">
+      <c r="B33" s="71">
         <v>31008</v>
       </c>
-      <c r="C33" s="70">
+      <c r="C33" s="71">
         <v>84816</v>
       </c>
-      <c r="D33" s="70">
+      <c r="D33" s="71">
         <v>94240</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="71">
         <v>35960</v>
       </c>
-      <c r="F33" s="74">
+      <c r="F33" s="75">
         <v>33</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="68">
         <v>3876</v>
       </c>
-      <c r="H33" s="67">
+      <c r="H33" s="68">
         <v>969</v>
       </c>
-      <c r="I33" s="67">
+      <c r="I33" s="68">
         <v>171</v>
       </c>
-      <c r="J33" s="67">
+      <c r="J33" s="68">
         <v>19</v>
       </c>
-      <c r="K33" s="67">
+      <c r="K33" s="68">
         <v>1</v>
       </c>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="70">
+      <c r="A34" s="71">
         <v>3060</v>
       </c>
-      <c r="B34" s="70">
+      <c r="B34" s="71">
         <v>26928</v>
       </c>
-      <c r="C34" s="70">
+      <c r="C34" s="71">
         <v>80784</v>
       </c>
-      <c r="D34" s="70">
+      <c r="D34" s="71">
         <v>98208</v>
       </c>
-      <c r="E34" s="70">
+      <c r="E34" s="71">
         <v>40920</v>
       </c>
-      <c r="F34" s="74">
+      <c r="F34" s="75">
         <v>34</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="68">
         <v>3060</v>
       </c>
-      <c r="H34" s="67">
+      <c r="H34" s="68">
         <v>816</v>
       </c>
-      <c r="I34" s="67">
+      <c r="I34" s="68">
         <v>153</v>
       </c>
-      <c r="J34" s="67">
+      <c r="J34" s="68">
         <v>18</v>
       </c>
-      <c r="K34" s="67">
+      <c r="K34" s="68">
         <v>1</v>
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
     </row>
     <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
+      <c r="A35" s="71">
         <v>2380</v>
       </c>
-      <c r="B35" s="70">
+      <c r="B35" s="71">
         <v>23120</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="71">
         <v>76296</v>
       </c>
-      <c r="D35" s="70">
+      <c r="D35" s="71">
         <v>101728</v>
       </c>
-      <c r="E35" s="70">
+      <c r="E35" s="71">
         <v>46376</v>
       </c>
-      <c r="F35" s="74">
+      <c r="F35" s="75">
         <v>35</v>
       </c>
-      <c r="G35" s="67">
+      <c r="G35" s="68">
         <v>2380</v>
       </c>
-      <c r="H35" s="67">
+      <c r="H35" s="68">
         <v>680</v>
       </c>
-      <c r="I35" s="67">
+      <c r="I35" s="68">
         <v>136</v>
       </c>
-      <c r="J35" s="67">
+      <c r="J35" s="68">
         <v>17</v>
       </c>
-      <c r="K35" s="67">
+      <c r="K35" s="68">
         <v>1</v>
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
     </row>
     <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="70">
+      <c r="A36" s="71">
         <v>1820</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B36" s="69">
         <v>19600</v>
       </c>
-      <c r="C36" s="70">
+      <c r="C36" s="71">
         <v>71400</v>
       </c>
-      <c r="D36" s="70">
+      <c r="D36" s="71">
         <v>104720</v>
       </c>
-      <c r="E36" s="70">
+      <c r="E36" s="71">
         <v>52360</v>
       </c>
-      <c r="F36" s="74">
+      <c r="F36" s="75">
         <v>36</v>
       </c>
-      <c r="G36" s="67">
+      <c r="G36" s="68">
         <v>1820</v>
       </c>
-      <c r="H36" s="67">
+      <c r="H36" s="68">
         <v>560</v>
       </c>
-      <c r="I36" s="67">
+      <c r="I36" s="68">
         <v>120</v>
       </c>
-      <c r="J36" s="67">
+      <c r="J36" s="68">
         <v>16</v>
       </c>
-      <c r="K36" s="67">
+      <c r="K36" s="68">
         <v>1</v>
       </c>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
     </row>
     <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="70">
+      <c r="A37" s="71">
         <v>1365</v>
       </c>
-      <c r="B37" s="70">
+      <c r="B37" s="71">
         <v>16380</v>
       </c>
-      <c r="C37" s="70">
+      <c r="C37" s="71">
         <v>66150</v>
       </c>
-      <c r="D37" s="70">
+      <c r="D37" s="71">
         <v>107100</v>
       </c>
-      <c r="E37" s="70">
+      <c r="E37" s="71">
         <v>58905</v>
       </c>
-      <c r="F37" s="74">
+      <c r="F37" s="75">
         <v>37</v>
       </c>
-      <c r="G37" s="67">
+      <c r="G37" s="68">
         <v>1365</v>
       </c>
-      <c r="H37" s="67">
+      <c r="H37" s="68">
         <v>455</v>
       </c>
-      <c r="I37" s="67">
+      <c r="I37" s="68">
         <v>105</v>
       </c>
-      <c r="J37" s="67">
+      <c r="J37" s="68">
         <v>15</v>
       </c>
-      <c r="K37" s="67">
+      <c r="K37" s="68">
         <v>1</v>
       </c>
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70">
+      <c r="A38" s="71">
         <v>1001</v>
       </c>
-      <c r="B38" s="70">
+      <c r="B38" s="71">
         <v>13468</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="71">
         <v>60606</v>
       </c>
-      <c r="D38" s="70">
+      <c r="D38" s="71">
         <v>108780</v>
       </c>
-      <c r="E38" s="70">
+      <c r="E38" s="71">
         <v>66045</v>
       </c>
-      <c r="F38" s="74">
+      <c r="F38" s="75">
         <v>38</v>
       </c>
-      <c r="G38" s="67">
+      <c r="G38" s="68">
         <v>1001</v>
       </c>
-      <c r="H38" s="67">
+      <c r="H38" s="68">
         <v>364</v>
       </c>
-      <c r="I38" s="67">
+      <c r="I38" s="68">
         <v>91</v>
       </c>
-      <c r="J38" s="67">
+      <c r="J38" s="68">
         <v>14</v>
       </c>
-      <c r="K38" s="67">
+      <c r="K38" s="68">
         <v>1</v>
       </c>
       <c r="L38" s="34"/>
       <c r="M38" s="34"/>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
+      <c r="A39" s="71">
         <v>715</v>
       </c>
-      <c r="B39" s="70">
+      <c r="B39" s="71">
         <v>10868</v>
       </c>
-      <c r="C39" s="70">
+      <c r="C39" s="71">
         <v>54834</v>
       </c>
-      <c r="D39" s="69">
+      <c r="D39" s="70">
         <v>109668</v>
       </c>
-      <c r="E39" s="70">
+      <c r="E39" s="71">
         <v>73815</v>
       </c>
-      <c r="F39" s="74">
+      <c r="F39" s="75">
         <v>39</v>
       </c>
-      <c r="G39" s="67">
+      <c r="G39" s="68">
         <v>715</v>
       </c>
-      <c r="H39" s="67">
+      <c r="H39" s="68">
         <v>286</v>
       </c>
-      <c r="I39" s="67">
+      <c r="I39" s="68">
         <v>78</v>
       </c>
-      <c r="J39" s="67">
+      <c r="J39" s="68">
         <v>13</v>
       </c>
-      <c r="K39" s="67">
+      <c r="K39" s="68">
         <v>1</v>
       </c>
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="70">
+      <c r="A40" s="71">
         <v>495</v>
       </c>
-      <c r="B40" s="70">
+      <c r="B40" s="71">
         <v>8580</v>
       </c>
-      <c r="C40" s="70">
+      <c r="C40" s="71">
         <v>48906</v>
       </c>
-      <c r="D40" s="69">
+      <c r="D40" s="70">
         <v>109668</v>
       </c>
-      <c r="E40" s="70">
+      <c r="E40" s="71">
         <v>82251</v>
       </c>
-      <c r="F40" s="74">
+      <c r="F40" s="75">
         <v>40</v>
       </c>
-      <c r="G40" s="67">
+      <c r="G40" s="68">
         <v>495</v>
       </c>
-      <c r="H40" s="67">
+      <c r="H40" s="68">
         <v>220</v>
       </c>
-      <c r="I40" s="67">
+      <c r="I40" s="68">
         <v>66</v>
       </c>
-      <c r="J40" s="67">
+      <c r="J40" s="68">
         <v>12</v>
       </c>
-      <c r="K40" s="67">
+      <c r="K40" s="68">
         <v>1</v>
       </c>
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="70">
+      <c r="A41" s="71">
         <v>330</v>
       </c>
-      <c r="B41" s="70">
+      <c r="B41" s="71">
         <v>6600</v>
       </c>
-      <c r="C41" s="70">
+      <c r="C41" s="71">
         <v>42900</v>
       </c>
-      <c r="D41" s="70">
+      <c r="D41" s="71">
         <v>108680</v>
       </c>
-      <c r="E41" s="70">
+      <c r="E41" s="71">
         <v>91390</v>
       </c>
-      <c r="F41" s="74">
+      <c r="F41" s="75">
         <v>41</v>
       </c>
-      <c r="G41" s="67">
+      <c r="G41" s="68">
         <v>330</v>
       </c>
-      <c r="H41" s="67">
+      <c r="H41" s="68">
         <v>165</v>
       </c>
-      <c r="I41" s="67">
+      <c r="I41" s="68">
         <v>55</v>
       </c>
-      <c r="J41" s="67">
+      <c r="J41" s="68">
         <v>11</v>
       </c>
-      <c r="K41" s="67">
+      <c r="K41" s="68">
         <v>1</v>
       </c>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
     </row>
     <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="70">
+      <c r="A42" s="71">
         <v>210</v>
       </c>
-      <c r="B42" s="70">
+      <c r="B42" s="71">
         <v>4920</v>
       </c>
-      <c r="C42" s="70">
+      <c r="C42" s="71">
         <v>36900</v>
       </c>
-      <c r="D42" s="70">
+      <c r="D42" s="71">
         <v>106600</v>
       </c>
-      <c r="E42" s="70">
+      <c r="E42" s="71">
         <v>101270</v>
       </c>
-      <c r="F42" s="74">
+      <c r="F42" s="75">
         <v>42</v>
       </c>
-      <c r="G42" s="67">
+      <c r="G42" s="68">
         <v>210</v>
       </c>
-      <c r="H42" s="67">
+      <c r="H42" s="68">
         <v>120</v>
       </c>
-      <c r="I42" s="67">
+      <c r="I42" s="68">
         <v>45</v>
       </c>
-      <c r="J42" s="67">
+      <c r="J42" s="68">
         <v>10</v>
       </c>
-      <c r="K42" s="67">
+      <c r="K42" s="68">
         <v>1</v>
       </c>
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="70">
+      <c r="A43" s="71">
         <v>126</v>
       </c>
-      <c r="B43" s="70">
+      <c r="B43" s="71">
         <v>3528</v>
       </c>
-      <c r="C43" s="70">
+      <c r="C43" s="71">
         <v>30996</v>
       </c>
-      <c r="D43" s="70">
+      <c r="D43" s="71">
         <v>103320</v>
       </c>
-      <c r="E43" s="70">
+      <c r="E43" s="71">
         <v>111930</v>
       </c>
-      <c r="F43" s="74">
+      <c r="F43" s="75">
         <v>43</v>
       </c>
-      <c r="G43" s="67">
+      <c r="G43" s="68">
         <v>126</v>
       </c>
-      <c r="H43" s="67">
+      <c r="H43" s="68">
         <v>84</v>
       </c>
-      <c r="I43" s="67">
+      <c r="I43" s="68">
         <v>36</v>
       </c>
-      <c r="J43" s="67">
+      <c r="J43" s="68">
         <v>9</v>
       </c>
-      <c r="K43" s="67">
+      <c r="K43" s="68">
         <v>1</v>
       </c>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="70">
+      <c r="A44" s="71">
         <v>70</v>
       </c>
-      <c r="B44" s="70">
+      <c r="B44" s="71">
         <v>2408</v>
       </c>
-      <c r="C44" s="70">
+      <c r="C44" s="71">
         <v>25284</v>
       </c>
-      <c r="D44" s="70">
+      <c r="D44" s="71">
         <v>98728</v>
       </c>
-      <c r="E44" s="70">
+      <c r="E44" s="71">
         <v>123410</v>
       </c>
-      <c r="F44" s="74">
+      <c r="F44" s="75">
         <v>44</v>
       </c>
-      <c r="G44" s="67">
+      <c r="G44" s="68">
         <v>70</v>
       </c>
-      <c r="H44" s="67">
+      <c r="H44" s="68">
         <v>56</v>
       </c>
-      <c r="I44" s="67">
+      <c r="I44" s="68">
         <v>28</v>
       </c>
-      <c r="J44" s="67">
+      <c r="J44" s="68">
         <v>8</v>
       </c>
-      <c r="K44" s="67">
+      <c r="K44" s="68">
         <v>1</v>
       </c>
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="70">
+      <c r="A45" s="71">
         <v>35</v>
       </c>
-      <c r="B45" s="70">
+      <c r="B45" s="71">
         <v>1540</v>
       </c>
-      <c r="C45" s="70">
+      <c r="C45" s="71">
         <v>19866</v>
       </c>
-      <c r="D45" s="70">
+      <c r="D45" s="71">
         <v>92708</v>
       </c>
-      <c r="E45" s="70">
+      <c r="E45" s="71">
         <v>135751</v>
       </c>
-      <c r="F45" s="74">
+      <c r="F45" s="75">
         <v>45</v>
       </c>
-      <c r="G45" s="67">
+      <c r="G45" s="68">
         <v>35</v>
       </c>
-      <c r="H45" s="67">
+      <c r="H45" s="68">
         <v>35</v>
       </c>
-      <c r="I45" s="67">
+      <c r="I45" s="68">
         <v>21</v>
       </c>
-      <c r="J45" s="67">
+      <c r="J45" s="68">
         <v>7</v>
       </c>
-      <c r="K45" s="67">
+      <c r="K45" s="68">
         <v>1</v>
       </c>
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
     </row>
     <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="70">
+      <c r="A46" s="71">
         <v>15</v>
       </c>
-      <c r="B46" s="70">
+      <c r="B46" s="71">
         <v>900</v>
       </c>
-      <c r="C46" s="70">
+      <c r="C46" s="71">
         <v>14850</v>
       </c>
-      <c r="D46" s="70">
+      <c r="D46" s="71">
         <v>85140</v>
       </c>
-      <c r="E46" s="70">
+      <c r="E46" s="71">
         <v>148995</v>
       </c>
-      <c r="F46" s="74">
+      <c r="F46" s="75">
         <v>46</v>
       </c>
-      <c r="G46" s="67">
+      <c r="G46" s="68">
         <v>15</v>
       </c>
-      <c r="H46" s="67">
+      <c r="H46" s="68">
         <v>20</v>
       </c>
-      <c r="I46" s="67">
+      <c r="I46" s="68">
         <v>15</v>
       </c>
-      <c r="J46" s="67">
+      <c r="J46" s="68">
         <v>6</v>
       </c>
-      <c r="K46" s="67">
+      <c r="K46" s="68">
         <v>1</v>
       </c>
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
     </row>
     <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
+      <c r="A47" s="71">
         <v>5</v>
       </c>
-      <c r="B47" s="70">
+      <c r="B47" s="71">
         <v>460</v>
       </c>
-      <c r="C47" s="70">
+      <c r="C47" s="71">
         <v>10350</v>
       </c>
-      <c r="D47" s="70">
+      <c r="D47" s="71">
         <v>75900</v>
       </c>
-      <c r="E47" s="70">
+      <c r="E47" s="71">
         <v>163185</v>
       </c>
-      <c r="F47" s="74">
+      <c r="F47" s="75">
         <v>47</v>
       </c>
-      <c r="G47" s="67">
+      <c r="G47" s="68">
         <v>5</v>
       </c>
-      <c r="H47" s="67">
+      <c r="H47" s="68">
         <v>10</v>
       </c>
-      <c r="I47" s="67">
+      <c r="I47" s="68">
         <v>10</v>
       </c>
-      <c r="J47" s="67">
+      <c r="J47" s="68">
         <v>5</v>
       </c>
-      <c r="K47" s="67">
+      <c r="K47" s="68">
         <v>1</v>
       </c>
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
     </row>
     <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="70">
-        <v>1</v>
-      </c>
-      <c r="B48" s="70">
+      <c r="A48" s="71">
+        <v>1</v>
+      </c>
+      <c r="B48" s="71">
         <v>188</v>
       </c>
-      <c r="C48" s="70">
+      <c r="C48" s="71">
         <v>6486</v>
       </c>
-      <c r="D48" s="70">
+      <c r="D48" s="71">
         <v>64860</v>
       </c>
-      <c r="E48" s="70">
+      <c r="E48" s="71">
         <v>178365</v>
       </c>
-      <c r="F48" s="74">
+      <c r="F48" s="75">
         <v>48</v>
       </c>
-      <c r="G48" s="67">
-        <v>1</v>
-      </c>
-      <c r="H48" s="67">
+      <c r="G48" s="68">
+        <v>1</v>
+      </c>
+      <c r="H48" s="68">
         <v>4</v>
       </c>
-      <c r="I48" s="67">
+      <c r="I48" s="68">
         <v>6</v>
       </c>
-      <c r="J48" s="67">
+      <c r="J48" s="68">
         <v>4</v>
       </c>
-      <c r="K48" s="67">
+      <c r="K48" s="68">
         <v>1</v>
       </c>
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
     </row>
     <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="70">
+      <c r="A49" s="71">
         <v>0</v>
       </c>
-      <c r="B49" s="70">
+      <c r="B49" s="71">
         <v>48</v>
       </c>
-      <c r="C49" s="70">
+      <c r="C49" s="71">
         <v>3384</v>
       </c>
-      <c r="D49" s="70">
+      <c r="D49" s="71">
         <v>51888</v>
       </c>
-      <c r="E49" s="70">
+      <c r="E49" s="71">
         <v>194580</v>
       </c>
-      <c r="F49" s="74">
+      <c r="F49" s="75">
         <v>49</v>
       </c>
-      <c r="G49" s="67">
+      <c r="G49" s="68">
         <v>0</v>
       </c>
-      <c r="H49" s="67">
-        <v>1</v>
-      </c>
-      <c r="I49" s="67">
+      <c r="H49" s="68">
+        <v>1</v>
+      </c>
+      <c r="I49" s="68">
         <v>3</v>
       </c>
-      <c r="J49" s="67">
+      <c r="J49" s="68">
         <v>3</v>
       </c>
-      <c r="K49" s="67">
+      <c r="K49" s="68">
         <v>1</v>
       </c>
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
     </row>
     <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="70">
+      <c r="A50" s="71">
         <v>0</v>
       </c>
-      <c r="B50" s="70">
+      <c r="B50" s="71">
         <v>0</v>
       </c>
-      <c r="C50" s="70">
+      <c r="C50" s="71">
         <v>1176</v>
       </c>
-      <c r="D50" s="70">
+      <c r="D50" s="71">
         <v>36848</v>
       </c>
-      <c r="E50" s="70">
+      <c r="E50" s="71">
         <v>211876</v>
       </c>
-      <c r="F50" s="74">
+      <c r="F50" s="75">
         <v>50</v>
       </c>
-      <c r="G50" s="67">
+      <c r="G50" s="68">
         <v>0</v>
       </c>
-      <c r="H50" s="67">
+      <c r="H50" s="68">
         <v>0</v>
       </c>
-      <c r="I50" s="67">
-        <v>1</v>
-      </c>
-      <c r="J50" s="67">
+      <c r="I50" s="68">
+        <v>1</v>
+      </c>
+      <c r="J50" s="68">
         <v>2</v>
       </c>
-      <c r="K50" s="67">
+      <c r="K50" s="68">
         <v>1</v>
       </c>
       <c r="L50" s="34"/>
       <c r="M50" s="34"/>
     </row>
     <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="70">
+      <c r="A51" s="71">
         <v>0</v>
       </c>
-      <c r="B51" s="70">
+      <c r="B51" s="71">
         <v>0</v>
       </c>
-      <c r="C51" s="70">
+      <c r="C51" s="71">
         <v>0</v>
       </c>
-      <c r="D51" s="68">
+      <c r="D51" s="69">
         <v>19600</v>
       </c>
-      <c r="E51" s="70">
+      <c r="E51" s="71">
         <v>230300</v>
       </c>
-      <c r="F51" s="74">
+      <c r="F51" s="75">
         <v>51</v>
       </c>
-      <c r="G51" s="67">
+      <c r="G51" s="68">
         <v>0</v>
       </c>
-      <c r="H51" s="67">
+      <c r="H51" s="68">
         <v>0</v>
       </c>
-      <c r="I51" s="67">
+      <c r="I51" s="68">
         <v>0</v>
       </c>
-      <c r="J51" s="67">
-        <v>1</v>
-      </c>
-      <c r="K51" s="67">
+      <c r="J51" s="68">
+        <v>1</v>
+      </c>
+      <c r="K51" s="68">
         <v>1</v>
       </c>
       <c r="L51" s="34"/>
       <c r="M51" s="34"/>
     </row>
     <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="70">
+      <c r="A52" s="71">
         <v>0</v>
       </c>
-      <c r="B52" s="70">
+      <c r="B52" s="71">
         <v>0</v>
       </c>
-      <c r="C52" s="70">
+      <c r="C52" s="71">
         <v>0</v>
       </c>
-      <c r="D52" s="70">
+      <c r="D52" s="71">
         <v>0</v>
       </c>
-      <c r="E52" s="70">
+      <c r="E52" s="71">
         <v>249900</v>
       </c>
-      <c r="F52" s="74">
+      <c r="F52" s="75">
         <v>52</v>
       </c>
-      <c r="G52" s="67">
+      <c r="G52" s="68">
         <v>0</v>
       </c>
-      <c r="H52" s="67">
+      <c r="H52" s="68">
         <v>0</v>
       </c>
-      <c r="I52" s="67">
+      <c r="I52" s="68">
         <v>0</v>
       </c>
-      <c r="J52" s="67">
+      <c r="J52" s="68">
         <v>0</v>
       </c>
-      <c r="K52" s="67">
+      <c r="K52" s="68">
         <v>1</v>
       </c>
       <c r="L52" s="34"/>
@@ -5805,7 +5959,7 @@
       <c r="A1" s="11">
         <v>1</v>
       </c>
-      <c r="B1" s="75">
+      <c r="B1" s="76">
         <v>11</v>
       </c>
     </row>
@@ -5813,7 +5967,7 @@
       <c r="A2" s="11">
         <v>2</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="76">
         <v>12</v>
       </c>
     </row>
@@ -5821,7 +5975,7 @@
       <c r="A3" s="11">
         <v>3</v>
       </c>
-      <c r="B3" s="75">
+      <c r="B3" s="76">
         <v>13</v>
       </c>
     </row>
@@ -5829,7 +5983,7 @@
       <c r="A4" s="11">
         <v>4</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4" s="76">
         <v>14</v>
       </c>
     </row>
@@ -5837,7 +5991,7 @@
       <c r="A5" s="11">
         <v>5</v>
       </c>
-      <c r="B5" s="75">
+      <c r="B5" s="76">
         <v>15</v>
       </c>
     </row>
@@ -5845,7 +5999,7 @@
       <c r="A6" s="11">
         <v>6</v>
       </c>
-      <c r="B6" s="75">
+      <c r="B6" s="76">
         <v>16</v>
       </c>
     </row>
@@ -5853,7 +6007,7 @@
       <c r="A7" s="11">
         <v>7</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="76">
         <v>17</v>
       </c>
     </row>
@@ -5861,7 +6015,7 @@
       <c r="A8" s="11">
         <v>8</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="76">
         <v>18</v>
       </c>
     </row>
@@ -5869,7 +6023,7 @@
       <c r="A9" s="11">
         <v>9</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="76">
         <v>19</v>
       </c>
     </row>
@@ -5877,7 +6031,7 @@
       <c r="A10" s="11">
         <v>10</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="76">
         <v>20</v>
       </c>
     </row>
@@ -5885,7 +6039,7 @@
       <c r="A11" s="11">
         <v>11</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="76">
         <v>21</v>
       </c>
     </row>
@@ -5893,7 +6047,7 @@
       <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B12" s="76">
         <v>22</v>
       </c>
     </row>
@@ -5901,7 +6055,7 @@
       <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="C13" s="75">
+      <c r="C13" s="76">
         <v>25</v>
       </c>
     </row>
@@ -5909,7 +6063,7 @@
       <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="C14" s="75">
+      <c r="C14" s="76">
         <v>48</v>
       </c>
     </row>
@@ -5917,7 +6071,7 @@
       <c r="A15" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="76">
         <v>167</v>
       </c>
     </row>
@@ -5925,7 +6079,7 @@
       <c r="A16" s="11">
         <v>16</v>
       </c>
-      <c r="B16" s="75">
+      <c r="B16" s="76">
         <v>168</v>
       </c>
     </row>
@@ -5933,7 +6087,7 @@
       <c r="A17" s="11">
         <v>17</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="76">
         <v>169</v>
       </c>
     </row>
@@ -5941,7 +6095,7 @@
       <c r="A18" s="11">
         <v>18</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="76">
         <v>170</v>
       </c>
     </row>
@@ -5949,7 +6103,7 @@
       <c r="A19" s="11">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="76">
         <v>171</v>
       </c>
     </row>
@@ -5957,7 +6111,7 @@
       <c r="A20" s="11">
         <v>20</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="76">
         <v>172</v>
       </c>
     </row>
@@ -5965,7 +6119,7 @@
       <c r="A21" s="11">
         <v>21</v>
       </c>
-      <c r="B21" s="75">
+      <c r="B21" s="76">
         <v>173</v>
       </c>
     </row>
@@ -5973,7 +6127,7 @@
       <c r="A22" s="11">
         <v>22</v>
       </c>
-      <c r="B22" s="75">
+      <c r="B22" s="76">
         <v>174</v>
       </c>
     </row>
@@ -5981,7 +6135,7 @@
       <c r="A23" s="11">
         <v>23</v>
       </c>
-      <c r="B23" s="75">
+      <c r="B23" s="76">
         <v>175</v>
       </c>
     </row>
@@ -5989,7 +6143,7 @@
       <c r="A24" s="11">
         <v>24</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B24" s="76">
         <v>176</v>
       </c>
     </row>
@@ -5997,7 +6151,7 @@
       <c r="A25" s="11">
         <v>25</v>
       </c>
-      <c r="B25" s="75">
+      <c r="B25" s="76">
         <v>177</v>
       </c>
     </row>
@@ -6005,7 +6159,7 @@
       <c r="A26" s="11">
         <v>26</v>
       </c>
-      <c r="B26" s="75">
+      <c r="B26" s="76">
         <v>178</v>
       </c>
     </row>
@@ -6013,7 +6167,7 @@
       <c r="A27" s="11">
         <v>27</v>
       </c>
-      <c r="B27" s="75">
+      <c r="B27" s="76">
         <v>179</v>
       </c>
     </row>
@@ -6021,7 +6175,7 @@
       <c r="A28" s="11">
         <v>28</v>
       </c>
-      <c r="C28" s="75">
+      <c r="C28" s="76">
         <v>181</v>
       </c>
     </row>
@@ -6029,7 +6183,7 @@
       <c r="A29" s="11">
         <v>29</v>
       </c>
-      <c r="B29" s="75">
+      <c r="B29" s="76">
         <v>191</v>
       </c>
     </row>
@@ -6037,7 +6191,7 @@
       <c r="A30" s="11">
         <v>30</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="76">
         <v>203</v>
       </c>
     </row>
@@ -6045,7 +6199,7 @@
       <c r="A31" s="11">
         <v>31</v>
       </c>
-      <c r="C31" s="75">
+      <c r="C31" s="76">
         <v>204</v>
       </c>
     </row>
@@ -6053,7 +6207,7 @@
       <c r="A32" s="11">
         <v>32</v>
       </c>
-      <c r="B32" s="75">
+      <c r="B32" s="76">
         <v>215</v>
       </c>
     </row>
@@ -6061,7 +6215,7 @@
       <c r="A33" s="11">
         <v>33</v>
       </c>
-      <c r="B33" s="75">
+      <c r="B33" s="76">
         <v>227</v>
       </c>
     </row>
@@ -6069,7 +6223,7 @@
       <c r="A34" s="11">
         <v>34</v>
       </c>
-      <c r="B34" s="75">
+      <c r="B34" s="76">
         <v>239</v>
       </c>
     </row>
@@ -6077,7 +6231,7 @@
       <c r="A35" s="11">
         <v>35</v>
       </c>
-      <c r="B35" s="75">
+      <c r="B35" s="76">
         <v>251</v>
       </c>
     </row>
@@ -6085,7 +6239,7 @@
       <c r="A36" s="11">
         <v>36</v>
       </c>
-      <c r="B36" s="75">
+      <c r="B36" s="76">
         <v>263</v>
       </c>
     </row>
@@ -6093,7 +6247,7 @@
       <c r="A37" s="11">
         <v>37</v>
       </c>
-      <c r="B37" s="75">
+      <c r="B37" s="76">
         <v>275</v>
       </c>
     </row>
@@ -6101,7 +6255,7 @@
       <c r="A38" s="11">
         <v>38</v>
       </c>
-      <c r="B38" s="75">
+      <c r="B38" s="76">
         <v>287</v>
       </c>
     </row>
@@ -6109,7 +6263,7 @@
       <c r="A39" s="11">
         <v>39</v>
       </c>
-      <c r="B39" s="75">
+      <c r="B39" s="76">
         <v>299</v>
       </c>
     </row>
@@ -6117,277 +6271,277 @@
       <c r="A40" s="11">
         <v>40</v>
       </c>
-      <c r="B40" s="75">
+      <c r="B40" s="76">
         <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="C41" s="75">
+      <c r="C41" s="76">
         <v>1600</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="C42" s="75">
+      <c r="C42" s="76">
         <v>1601</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="75">
+      <c r="B43" s="76">
         <v>1610</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="B44" s="75">
+      <c r="B44" s="76">
         <v>1611</v>
       </c>
-      <c r="C44" s="75">
+      <c r="C44" s="76">
         <v>1611</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="75">
+      <c r="B45" s="76">
         <v>1612</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="75">
+      <c r="B46" s="76">
         <v>1613</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75">
+      <c r="B47" s="76"/>
+      <c r="C47" s="76">
         <v>1677</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75">
+      <c r="B48" s="76"/>
+      <c r="C48" s="76">
         <v>1688</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75">
+      <c r="B49" s="76"/>
+      <c r="C49" s="76">
         <v>1808</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75">
+      <c r="B50" s="76"/>
+      <c r="C50" s="76">
         <v>1818</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="75">
+      <c r="C51" s="76">
         <v>1819</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="75">
+      <c r="C52" s="76">
         <v>1820</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="75">
+      <c r="C53" s="76">
         <v>1821</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="75">
+      <c r="C54" s="76">
         <v>1822</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="75">
+      <c r="C55" s="76">
         <v>1823</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="75">
+      <c r="C56" s="76">
         <v>1824</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="75">
+      <c r="C57" s="76">
         <v>1825</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="75">
+      <c r="C58" s="76">
         <v>1826</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="75">
+      <c r="C59" s="76">
         <v>1863</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="75">
+      <c r="C60" s="76">
         <v>1873</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="75">
+      <c r="C61" s="76">
         <v>1883</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="75">
+      <c r="C62" s="76">
         <v>1884</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="75">
+      <c r="C63" s="76">
         <v>1885</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="75">
+      <c r="C64" s="76">
         <v>1886</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="75">
+      <c r="C65" s="76">
         <v>1887</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="75">
+      <c r="C66" s="76">
         <v>1888</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="75">
+      <c r="C67" s="76">
         <v>1889</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="75">
+      <c r="C68" s="76">
         <v>1890</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
-      <c r="C69" s="75">
+      <c r="C69" s="76">
         <v>1891</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="75">
+      <c r="C70" s="76">
         <v>1892</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
-      <c r="C71" s="75">
+      <c r="C71" s="76">
         <v>1893</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="75">
+      <c r="C72" s="76">
         <v>1894</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
-      <c r="C73" s="75">
+      <c r="C73" s="76">
         <v>1895</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="75">
+      <c r="C74" s="76">
         <v>1896</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
-      <c r="C75" s="75">
+      <c r="C75" s="76">
         <v>1897</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
-      <c r="C76" s="75">
+      <c r="C76" s="76">
         <v>1898</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
-      <c r="C77" s="75">
+      <c r="C77" s="76">
         <v>1899</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="75">
+      <c r="C78" s="76">
         <v>1900</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="75">
+      <c r="C79" s="76">
         <v>2469</v>
       </c>
     </row>
